--- a/Vista.DB/Schema/AuctionDB_Schema.xlsx
+++ b/Vista.DB/Schema/AuctionDB_Schema.xlsx
@@ -36,9 +36,10 @@
     <x:sheet name="Staff" sheetId="25" r:id="rId25"/>
     <x:sheet name="SysParameter" sheetId="26" r:id="rId26"/>
     <x:sheet name="Vip" sheetId="27" r:id="rId27"/>
+    <x:sheet name="vw_LatestBid" sheetId="28" r:id="rId28"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="ItemList_tpl" localSheetId="0">'Schema Overview'!$A$6:$D$27</x:definedName>
+    <x:definedName name="ItemList_tpl" localSheetId="0">'Schema Overview'!$A$6:$D$28</x:definedName>
     <x:definedName name="FieldList_tpl" localSheetId="1">AuctionBidLog!$A$8:$I$19</x:definedName>
     <x:definedName name="FieldList_tpl" localSheetId="2">AuctionHammered!$A$8:$I$27</x:definedName>
     <x:definedName name="FieldList_tpl" localSheetId="3">AuctionPrize!$A$8:$I$17</x:definedName>
@@ -46,7 +47,7 @@
     <x:definedName name="FieldList_tpl" localSheetId="5">DonationRecord!$A$8:$I$12</x:definedName>
     <x:definedName name="FieldList_tpl" localSheetId="6">GiveOrder!$A$8:$I$20</x:definedName>
     <x:definedName name="FieldList_tpl" localSheetId="7">GivePrize!$A$8:$I$12</x:definedName>
-    <x:definedName name="FieldList_tpl" localSheetId="8">GiveTicket!$A$8:$I$10</x:definedName>
+    <x:definedName name="FieldList_tpl" localSheetId="8">GiveTicket!$A$8:$I$11</x:definedName>
     <x:definedName name="FieldList_tpl" localSheetId="9">GiveWinner!$A$8:$I$9</x:definedName>
     <x:definedName name="FieldList_tpl" localSheetId="10">LiveSession!$A$8:$I$11</x:definedName>
     <x:definedName name="FieldList_tpl" localSheetId="11">OpenAskRecord!$A$8:$I$15</x:definedName>
@@ -61,6 +62,7 @@
     <x:definedName name="FieldList_tpl" localSheetId="20">Staff!$A$8:$I$14</x:definedName>
     <x:definedName name="FieldList_tpl" localSheetId="21">SysParameter!$A$8:$I$12</x:definedName>
     <x:definedName name="FieldList_tpl" localSheetId="22">Vip!$A$8:$I$16</x:definedName>
+    <x:definedName name="FieldList_tpl" localSheetId="23">vw_LatestBid!$A$8:$I$13</x:definedName>
     <x:definedName name="ItemList">#REF!</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="191029"/>
@@ -383,6 +385,15 @@
     <x:t>賓客聯絡資訊</x:t>
   </x:si>
   <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>vw_LatestBid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VIEW</x:t>
+  </x:si>
+  <x:si>
     <x:r>
       <x:rPr>
         <x:vertAlign val="baseline"/>
@@ -1328,6 +1339,15 @@
     <x:t>貴賓編號</x:t>
   </x:si>
   <x:si>
+    <x:t>HolderName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>票券所有人名稱</x:t>
+  </x:si>
+  <x:si>
+    <x:t>票券所有人名稱: 驗證效果比較大</x:t>
+  </x:si>
+  <x:si>
     <x:r>
       <x:rPr>
         <x:vertAlign val="baseline"/>
@@ -2201,9 +2221,6 @@
     <x:t>AutoHammered</x:t>
   </x:si>
   <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
     <x:r>
       <x:rPr>
         <x:vertAlign val="baseline"/>
@@ -2607,6 +2624,78 @@
   </x:si>
   <x:si>
     <x:t>統編(身分證號)</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="18"/>
+        <x:color indexed="13"/>
+        <x:rFont val="標楷體"/>
+        <x:family val="4"/>
+      </x:rPr>
+      <x:t>資料庫檔案</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="18"/>
+        <x:color indexed="13"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+      </x:rPr>
+      <x:t>(</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="18"/>
+        <x:color indexed="13"/>
+        <x:rFont val="標楷體"/>
+        <x:family val="4"/>
+      </x:rPr>
+      <x:t>物件</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="18"/>
+        <x:color indexed="13"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+      </x:rPr>
+      <x:t>)</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="12"/>
+        <x:color rgb="FF000000"/>
+        <x:rFont val="標楷體"/>
+        <x:family val="4"/>
+      </x:rPr>
+      <x:t>檔案(物件)名稱</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="12"/>
+        <x:color rgb="FF000000"/>
+        <x:rFont val="標楷體"/>
+        <x:family val="4"/>
+      </x:rPr>
+      <x:t>檔案(物件)種類</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:t>rn</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -3453,7 +3542,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:I11"/>
+  <x:dimension ref="A1:I13"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="B6" sqref="B6 B6:I6"/>
@@ -3474,7 +3563,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>218</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -3497,7 +3586,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>219</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -3505,7 +3594,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>220</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -3516,7 +3605,7 @@
     </x:row>
     <x:row r="5" spans="1:9">
       <x:c r="A5" s="38" t="s">
-        <x:v>73</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B5" s="39" t="s">
         <x:v>29</x:v>
@@ -3531,7 +3620,7 @@
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" s="38" t="s">
-        <x:v>74</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B6" s="39"/>
       <x:c r="C6" s="40"/>
@@ -3544,31 +3633,31 @@
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="38" t="s">
-        <x:v>75</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B7" s="42" t="s">
-        <x:v>76</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C7" s="42" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D7" s="42" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E7" s="42" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F7" s="42" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="G7" s="42" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="H7" s="42" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I7" s="43" t="s">
         <x:v>77</x:v>
-      </x:c>
-      <x:c r="D7" s="42" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E7" s="42" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="F7" s="42" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G7" s="42" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="H7" s="42" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I7" s="43" t="s">
-        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9" ht="16.2" customHeight="1">
@@ -3576,26 +3665,26 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>221</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
-        <x:v>222</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="D8" s="47" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E8" s="47" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F8" s="47" t="s">
-        <x:v>85</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G8" s="47"/>
       <x:c r="H8" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
-        <x:v>222</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
@@ -3603,13 +3692,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B9" s="45" t="s">
-        <x:v>179</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
-        <x:v>223</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="D9" s="47" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E9" s="47" t="s">
         <x:v>27</x:v>
@@ -3617,10 +3706,10 @@
       <x:c r="F9" s="47" t="s"/>
       <x:c r="G9" s="47"/>
       <x:c r="H9" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I9" s="48" t="s">
-        <x:v>223</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" ht="16.2" customHeight="1">
@@ -3628,13 +3717,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="45" t="s">
-        <x:v>89</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
-        <x:v>224</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="D10" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E10" s="47" t="s">
         <x:v>36</x:v>
@@ -3642,22 +3731,58 @@
       <x:c r="F10" s="47" t="s"/>
       <x:c r="G10" s="47"/>
       <x:c r="H10" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I10" s="48" t="s">
-        <x:v>224</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:9">
-      <x:c r="A11" s="27"/>
-      <x:c r="B11" s="28"/>
-      <x:c r="C11" s="2"/>
-      <x:c r="D11" s="1"/>
-      <x:c r="E11" s="1"/>
-      <x:c r="F11" s="1"/>
-      <x:c r="G11" s="1"/>
-      <x:c r="H11" s="1"/>
-      <x:c r="I11" s="29"/>
+        <x:v>227</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:9" ht="16.2" customHeight="1">
+      <x:c r="A11" s="44" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B11" s="45" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="C11" s="46" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="D11" s="47" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E11" s="47" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="F11" s="47" t="s"/>
+      <x:c r="G11" s="47"/>
+      <x:c r="H11" s="47" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="I11" s="48" t="s">
+        <x:v>230</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:9">
+      <x:c r="A12" s="27"/>
+      <x:c r="B12" s="28"/>
+      <x:c r="C12" s="2"/>
+      <x:c r="D12" s="1"/>
+      <x:c r="E12" s="1"/>
+      <x:c r="F12" s="1"/>
+      <x:c r="G12" s="1"/>
+      <x:c r="H12" s="1"/>
+      <x:c r="I12" s="29"/>
+    </x:row>
+    <x:row r="13" spans="1:9">
+      <x:c r="A13" s="27"/>
+      <x:c r="B13" s="28"/>
+      <x:c r="C13" s="2"/>
+      <x:c r="D13" s="1"/>
+      <x:c r="E13" s="1"/>
+      <x:c r="F13" s="1"/>
+      <x:c r="G13" s="1"/>
+      <x:c r="H13" s="1"/>
+      <x:c r="I13" s="29"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="7">
@@ -3710,7 +3835,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>225</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -3733,7 +3858,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>226</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -3741,7 +3866,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>227</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -3752,7 +3877,7 @@
     </x:row>
     <x:row r="5" spans="1:9">
       <x:c r="A5" s="38" t="s">
-        <x:v>73</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B5" s="39" t="s">
         <x:v>32</x:v>
@@ -3767,7 +3892,7 @@
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" s="38" t="s">
-        <x:v>74</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B6" s="39"/>
       <x:c r="C6" s="40"/>
@@ -3780,31 +3905,31 @@
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="38" t="s">
-        <x:v>75</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B7" s="42" t="s">
-        <x:v>76</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C7" s="42" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D7" s="42" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E7" s="42" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F7" s="42" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="G7" s="42" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="H7" s="42" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I7" s="43" t="s">
         <x:v>77</x:v>
-      </x:c>
-      <x:c r="D7" s="42" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E7" s="42" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="F7" s="42" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G7" s="42" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="H7" s="42" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I7" s="43" t="s">
-        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9" ht="16.2" customHeight="1">
@@ -3812,11 +3937,11 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>183</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="C8" s="46"/>
       <x:c r="D8" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E8" s="47" t="s">
         <x:v>36</x:v>
@@ -3824,7 +3949,7 @@
       <x:c r="F8" s="47" t="s"/>
       <x:c r="G8" s="47"/>
       <x:c r="H8" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I8" s="48"/>
     </x:row>
@@ -3833,11 +3958,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B9" s="45" t="s">
-        <x:v>221</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="C9" s="46"/>
       <x:c r="D9" s="47" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E9" s="47" t="s">
         <x:v>27</x:v>
@@ -3845,7 +3970,7 @@
       <x:c r="F9" s="47" t="s"/>
       <x:c r="G9" s="47"/>
       <x:c r="H9" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I9" s="48"/>
     </x:row>
@@ -3900,7 +4025,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>228</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -3923,7 +4048,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>229</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -3931,7 +4056,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>230</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -3942,7 +4067,7 @@
     </x:row>
     <x:row r="5" spans="1:9">
       <x:c r="A5" s="38" t="s">
-        <x:v>73</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B5" s="39" t="s">
         <x:v>35</x:v>
@@ -3957,7 +4082,7 @@
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" s="38" t="s">
-        <x:v>74</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B6" s="39"/>
       <x:c r="C6" s="40"/>
@@ -3970,31 +4095,31 @@
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="38" t="s">
-        <x:v>75</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B7" s="42" t="s">
-        <x:v>76</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C7" s="42" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D7" s="42" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E7" s="42" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F7" s="42" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="G7" s="42" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="H7" s="42" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I7" s="43" t="s">
         <x:v>77</x:v>
-      </x:c>
-      <x:c r="D7" s="42" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E7" s="42" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="F7" s="42" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G7" s="42" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="H7" s="42" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I7" s="43" t="s">
-        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9" ht="16.2" customHeight="1">
@@ -4002,26 +4127,26 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>231</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
-        <x:v>232</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="D8" s="47" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E8" s="47" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="F8" s="47" t="s">
         <x:v>88</x:v>
-      </x:c>
-      <x:c r="E8" s="47" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="F8" s="47" t="s">
-        <x:v>85</x:v>
       </x:c>
       <x:c r="G8" s="47"/>
       <x:c r="H8" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
-        <x:v>232</x:v>
+        <x:v>238</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
@@ -4029,24 +4154,24 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B9" s="45" t="s">
-        <x:v>233</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
-        <x:v>73</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D9" s="47" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E9" s="47" t="s">
-        <x:v>145</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F9" s="47" t="s"/>
       <x:c r="G9" s="47"/>
       <x:c r="H9" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I9" s="48" t="s">
-        <x:v>73</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" ht="16.2" customHeight="1">
@@ -4054,24 +4179,24 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="45" t="s">
-        <x:v>234</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
-        <x:v>235</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="D10" s="47" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E10" s="47" t="s">
-        <x:v>104</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F10" s="47" t="s"/>
       <x:c r="G10" s="47"/>
       <x:c r="H10" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I10" s="48" t="s">
-        <x:v>235</x:v>
+        <x:v>241</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9" ht="16.2" customHeight="1">
@@ -4079,22 +4204,22 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B11" s="45" t="s">
-        <x:v>236</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="C11" s="46" t="s">
-        <x:v>237</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="D11" s="47" t="s">
-        <x:v>94</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E11" s="47"/>
       <x:c r="F11" s="47" t="s"/>
       <x:c r="G11" s="47"/>
       <x:c r="H11" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I11" s="48" t="s">
-        <x:v>237</x:v>
+        <x:v>243</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -4170,7 +4295,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>238</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -4193,7 +4318,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>239</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -4201,7 +4326,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>240</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -4212,7 +4337,7 @@
     </x:row>
     <x:row r="5" spans="1:9">
       <x:c r="A5" s="38" t="s">
-        <x:v>73</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B5" s="39" t="s">
         <x:v>38</x:v>
@@ -4227,7 +4352,7 @@
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" s="38" t="s">
-        <x:v>74</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B6" s="39"/>
       <x:c r="C6" s="40"/>
@@ -4240,31 +4365,31 @@
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="38" t="s">
-        <x:v>75</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B7" s="42" t="s">
-        <x:v>76</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C7" s="42" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D7" s="42" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E7" s="42" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F7" s="42" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="G7" s="42" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="H7" s="42" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I7" s="43" t="s">
         <x:v>77</x:v>
-      </x:c>
-      <x:c r="D7" s="42" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E7" s="42" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="F7" s="42" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G7" s="42" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="H7" s="42" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I7" s="43" t="s">
-        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9" ht="16.2" customHeight="1">
@@ -4272,21 +4397,21 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>241</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
         <x:v>41</x:v>
       </x:c>
       <x:c r="D8" s="47" t="s">
-        <x:v>170</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E8" s="47"/>
       <x:c r="F8" s="47" t="s">
-        <x:v>85</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G8" s="47"/>
       <x:c r="H8" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
         <x:v>41</x:v>
@@ -4297,26 +4422,26 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B9" s="45" t="s">
-        <x:v>89</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
-        <x:v>242</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="D9" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E9" s="47" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="F9" s="47" t="s">
-        <x:v>85</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G9" s="47"/>
       <x:c r="H9" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I9" s="48" t="s">
-        <x:v>242</x:v>
+        <x:v>248</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" ht="16.2" customHeight="1">
@@ -4324,24 +4449,24 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="45" t="s">
-        <x:v>90</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
-        <x:v>243</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="D10" s="47" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E10" s="47" t="s">
-        <x:v>92</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F10" s="47" t="s"/>
       <x:c r="G10" s="47"/>
       <x:c r="H10" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I10" s="48" t="s">
-        <x:v>243</x:v>
+        <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9" ht="16.2" customHeight="1">
@@ -4349,22 +4474,22 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B11" s="45" t="s">
-        <x:v>173</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C11" s="46" t="s">
-        <x:v>174</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="D11" s="47" t="s">
-        <x:v>94</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E11" s="47"/>
       <x:c r="F11" s="47" t="s"/>
       <x:c r="G11" s="47"/>
       <x:c r="H11" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I11" s="48" t="s">
-        <x:v>174</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9" ht="16.2" customHeight="1">
@@ -4372,22 +4497,22 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B12" s="45" t="s">
-        <x:v>97</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C12" s="46" t="s">
-        <x:v>244</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="D12" s="47" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E12" s="47"/>
       <x:c r="F12" s="47" t="s"/>
       <x:c r="G12" s="47"/>
       <x:c r="H12" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I12" s="48" t="s">
-        <x:v>244</x:v>
+        <x:v>250</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9" ht="16.2" customHeight="1">
@@ -4395,24 +4520,24 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B13" s="45" t="s">
-        <x:v>245</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C13" s="46" t="s">
-        <x:v>246</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="D13" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E13" s="47" t="s">
-        <x:v>107</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F13" s="47" t="s"/>
       <x:c r="G13" s="47"/>
       <x:c r="H13" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I13" s="48" t="s">
-        <x:v>246</x:v>
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9" ht="16.2" customHeight="1">
@@ -4420,24 +4545,24 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B14" s="45" t="s">
-        <x:v>247</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="C14" s="46" t="s">
-        <x:v>248</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="D14" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E14" s="47" t="s">
-        <x:v>107</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F14" s="47" t="s"/>
       <x:c r="G14" s="47"/>
       <x:c r="H14" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I14" s="48" t="s">
-        <x:v>248</x:v>
+        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9" ht="16.2" customHeight="1">
@@ -4445,26 +4570,26 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B15" s="45" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C15" s="46" t="s">
-        <x:v>249</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="D15" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E15" s="47" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="F15" s="47" t="s"/>
       <x:c r="G15" s="47" t="s">
-        <x:v>110</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="H15" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I15" s="48" t="s">
-        <x:v>250</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -4584,7 +4709,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>251</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -4607,7 +4732,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>252</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -4615,7 +4740,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>253</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -4626,7 +4751,7 @@
     </x:row>
     <x:row r="5" spans="1:9">
       <x:c r="A5" s="38" t="s">
-        <x:v>73</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B5" s="39" t="s">
         <x:v>41</x:v>
@@ -4641,7 +4766,7 @@
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" s="38" t="s">
-        <x:v>74</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B6" s="39"/>
       <x:c r="C6" s="40"/>
@@ -4654,31 +4779,31 @@
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="38" t="s">
-        <x:v>75</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B7" s="42" t="s">
-        <x:v>76</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C7" s="42" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D7" s="42" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E7" s="42" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F7" s="42" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="G7" s="42" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="H7" s="42" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I7" s="43" t="s">
         <x:v>77</x:v>
-      </x:c>
-      <x:c r="D7" s="42" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E7" s="42" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="F7" s="42" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G7" s="42" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="H7" s="42" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I7" s="43" t="s">
-        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9" ht="16.2" customHeight="1">
@@ -4686,24 +4811,24 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>241</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
-        <x:v>254</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="D8" s="47" t="s">
-        <x:v>170</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E8" s="47"/>
       <x:c r="F8" s="47" t="s">
-        <x:v>85</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G8" s="47"/>
       <x:c r="H8" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
-        <x:v>255</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
@@ -4711,22 +4836,22 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B9" s="45" t="s">
-        <x:v>173</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
-        <x:v>256</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="D9" s="47" t="s">
-        <x:v>94</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E9" s="47"/>
       <x:c r="F9" s="47" t="s"/>
       <x:c r="G9" s="47"/>
       <x:c r="H9" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I9" s="48" t="s">
-        <x:v>256</x:v>
+        <x:v>262</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" ht="16.2" customHeight="1">
@@ -4734,26 +4859,26 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="45" t="s">
-        <x:v>257</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
-        <x:v>258</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="D10" s="47" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E10" s="47" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F10" s="47" t="s"/>
       <x:c r="G10" s="47" t="s">
-        <x:v>131</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H10" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I10" s="48" t="s">
-        <x:v>259</x:v>
+        <x:v>265</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -4818,7 +4943,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>260</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -4841,7 +4966,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>261</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -4849,7 +4974,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>262</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -4860,7 +4985,7 @@
     </x:row>
     <x:row r="5" spans="1:9">
       <x:c r="A5" s="38" t="s">
-        <x:v>73</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B5" s="39" t="s">
         <x:v>44</x:v>
@@ -4875,7 +5000,7 @@
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" s="38" t="s">
-        <x:v>74</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B6" s="39"/>
       <x:c r="C6" s="40"/>
@@ -4888,31 +5013,31 @@
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="38" t="s">
-        <x:v>75</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B7" s="42" t="s">
-        <x:v>76</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C7" s="42" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D7" s="42" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E7" s="42" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F7" s="42" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="G7" s="42" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="H7" s="42" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I7" s="43" t="s">
         <x:v>77</x:v>
-      </x:c>
-      <x:c r="D7" s="42" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E7" s="42" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="F7" s="42" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G7" s="42" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="H7" s="42" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I7" s="43" t="s">
-        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9" ht="16.2" customHeight="1">
@@ -4920,26 +5045,26 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>263</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
-        <x:v>180</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D8" s="47" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E8" s="47" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F8" s="47" t="s">
-        <x:v>85</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G8" s="47"/>
       <x:c r="H8" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
-        <x:v>264</x:v>
+        <x:v>270</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
@@ -4947,24 +5072,24 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B9" s="45" t="s">
-        <x:v>265</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
-        <x:v>266</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="D9" s="47" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E9" s="47" t="s">
-        <x:v>92</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F9" s="47" t="s"/>
       <x:c r="G9" s="47"/>
       <x:c r="H9" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I9" s="48" t="s">
-        <x:v>266</x:v>
+        <x:v>272</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" ht="16.2" customHeight="1">
@@ -4972,24 +5097,24 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="45" t="s">
-        <x:v>267</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
-        <x:v>268</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="D10" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E10" s="47" t="s">
-        <x:v>92</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F10" s="47" t="s"/>
       <x:c r="G10" s="47"/>
       <x:c r="H10" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I10" s="48" t="s">
-        <x:v>268</x:v>
+        <x:v>274</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9" ht="16.2" customHeight="1">
@@ -4997,24 +5122,24 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B11" s="45" t="s">
-        <x:v>269</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="C11" s="46" t="s">
-        <x:v>270</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="D11" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E11" s="47" t="s">
-        <x:v>107</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F11" s="47" t="s"/>
       <x:c r="G11" s="47"/>
       <x:c r="H11" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I11" s="48" t="s">
-        <x:v>270</x:v>
+        <x:v>276</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9" ht="16.2" customHeight="1">
@@ -5022,22 +5147,22 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B12" s="45" t="s">
-        <x:v>185</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="C12" s="46" t="s">
-        <x:v>186</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="D12" s="47" t="s">
-        <x:v>170</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E12" s="47"/>
       <x:c r="F12" s="47" t="s"/>
       <x:c r="G12" s="47"/>
       <x:c r="H12" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I12" s="48" t="s">
-        <x:v>186</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9" ht="16.2" customHeight="1">
@@ -5045,22 +5170,22 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B13" s="45" t="s">
-        <x:v>187</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="C13" s="46" t="s">
-        <x:v>188</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="D13" s="47" t="s">
-        <x:v>94</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E13" s="47"/>
       <x:c r="F13" s="47" t="s"/>
       <x:c r="G13" s="47"/>
       <x:c r="H13" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I13" s="48" t="s">
-        <x:v>188</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9" ht="16.2" customHeight="1">
@@ -5068,13 +5193,13 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B14" s="45" t="s">
-        <x:v>189</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="C14" s="46" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="D14" s="47" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E14" s="47" t="s">
         <x:v>10</x:v>
@@ -5082,10 +5207,10 @@
       <x:c r="F14" s="47" t="s"/>
       <x:c r="G14" s="47"/>
       <x:c r="H14" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I14" s="48" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9" ht="16.2" customHeight="1">
@@ -5093,24 +5218,24 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B15" s="45" t="s">
-        <x:v>192</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="C15" s="46" t="s">
-        <x:v>193</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="D15" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E15" s="47" t="s">
-        <x:v>107</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F15" s="47" t="s"/>
       <x:c r="G15" s="47"/>
       <x:c r="H15" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I15" s="48" t="s">
-        <x:v>193</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9" ht="16.2" customHeight="1">
@@ -5118,22 +5243,22 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B16" s="45" t="s">
-        <x:v>194</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="C16" s="46" t="s">
-        <x:v>195</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="D16" s="47" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E16" s="47"/>
       <x:c r="F16" s="47" t="s"/>
       <x:c r="G16" s="47"/>
       <x:c r="H16" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I16" s="48" t="s">
-        <x:v>196</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9" ht="16.2" customHeight="1">
@@ -5141,13 +5266,13 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="B17" s="45" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C17" s="46" t="s">
-        <x:v>197</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="D17" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E17" s="47" t="s">
         <x:v>64</x:v>
@@ -5155,10 +5280,10 @@
       <x:c r="F17" s="47" t="s"/>
       <x:c r="G17" s="47"/>
       <x:c r="H17" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I17" s="48" t="s">
-        <x:v>198</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9" ht="16.2" customHeight="1">
@@ -5166,19 +5291,19 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="B18" s="45" t="s">
-        <x:v>199</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="C18" s="46"/>
       <x:c r="D18" s="47" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E18" s="47" t="s">
-        <x:v>104</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F18" s="47" t="s"/>
       <x:c r="G18" s="47"/>
       <x:c r="H18" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I18" s="48"/>
     </x:row>
@@ -5187,13 +5312,13 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="B19" s="45" t="s">
-        <x:v>200</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="C19" s="46" t="s">
-        <x:v>201</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D19" s="47" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E19" s="47" t="s">
         <x:v>10</x:v>
@@ -5201,10 +5326,10 @@
       <x:c r="F19" s="47" t="s"/>
       <x:c r="G19" s="47"/>
       <x:c r="H19" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I19" s="48" t="s">
-        <x:v>202</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9" ht="16.2" customHeight="1">
@@ -5212,24 +5337,24 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="B20" s="45" t="s">
-        <x:v>203</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="C20" s="46" t="s">
-        <x:v>204</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="D20" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E20" s="47" t="s">
-        <x:v>107</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F20" s="47" t="s"/>
       <x:c r="G20" s="47"/>
       <x:c r="H20" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I20" s="48" t="s">
-        <x:v>205</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9" ht="16.2" customHeight="1">
@@ -5237,22 +5362,22 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="B21" s="45" t="s">
-        <x:v>206</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="C21" s="46" t="s">
-        <x:v>207</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="D21" s="47" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E21" s="47"/>
       <x:c r="F21" s="47" t="s"/>
       <x:c r="G21" s="47"/>
       <x:c r="H21" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I21" s="48" t="s">
-        <x:v>208</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -5438,7 +5563,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>271</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -5461,7 +5586,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>272</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -5469,7 +5594,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>273</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -5480,7 +5605,7 @@
     </x:row>
     <x:row r="5" spans="1:9">
       <x:c r="A5" s="38" t="s">
-        <x:v>73</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B5" s="39" t="s">
         <x:v>47</x:v>
@@ -5495,7 +5620,7 @@
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" s="38" t="s">
-        <x:v>74</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B6" s="39"/>
       <x:c r="C6" s="40"/>
@@ -5508,31 +5633,31 @@
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="38" t="s">
-        <x:v>75</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B7" s="42" t="s">
-        <x:v>76</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C7" s="42" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D7" s="42" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E7" s="42" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F7" s="42" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="G7" s="42" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="H7" s="42" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I7" s="43" t="s">
         <x:v>77</x:v>
-      </x:c>
-      <x:c r="D7" s="42" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E7" s="42" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="F7" s="42" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G7" s="42" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="H7" s="42" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I7" s="43" t="s">
-        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9" ht="16.2" customHeight="1">
@@ -5540,26 +5665,26 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>274</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
-        <x:v>275</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="D8" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E8" s="47" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="F8" s="47" t="s">
-        <x:v>85</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G8" s="47"/>
       <x:c r="H8" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
-        <x:v>275</x:v>
+        <x:v>281</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
@@ -5567,24 +5692,24 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B9" s="45" t="s">
-        <x:v>139</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
-        <x:v>276</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="D9" s="47" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E9" s="47" t="s">
-        <x:v>92</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F9" s="47" t="s"/>
       <x:c r="G9" s="47"/>
       <x:c r="H9" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I9" s="48" t="s">
-        <x:v>276</x:v>
+        <x:v>282</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" ht="16.2" customHeight="1">
@@ -5592,24 +5717,24 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="45" t="s">
-        <x:v>141</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
-        <x:v>277</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="D10" s="47" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E10" s="47" t="s">
-        <x:v>104</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F10" s="47" t="s"/>
       <x:c r="G10" s="47"/>
       <x:c r="H10" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I10" s="48" t="s">
-        <x:v>277</x:v>
+        <x:v>283</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9" ht="16.2" customHeight="1">
@@ -5617,24 +5742,24 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B11" s="45" t="s">
-        <x:v>143</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C11" s="46" t="s">
-        <x:v>278</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="D11" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E11" s="47" t="s">
-        <x:v>145</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F11" s="47" t="s"/>
       <x:c r="G11" s="47"/>
       <x:c r="H11" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I11" s="48" t="s">
-        <x:v>278</x:v>
+        <x:v>284</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9" ht="16.2" customHeight="1">
@@ -5642,22 +5767,22 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B12" s="45" t="s">
-        <x:v>216</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="C12" s="46" t="s">
-        <x:v>279</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="D12" s="47" t="s">
-        <x:v>94</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E12" s="47"/>
       <x:c r="F12" s="47" t="s"/>
       <x:c r="G12" s="47"/>
       <x:c r="H12" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I12" s="48" t="s">
-        <x:v>279</x:v>
+        <x:v>285</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9" ht="16.2" customHeight="1">
@@ -5665,13 +5790,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B13" s="45" t="s">
-        <x:v>280</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="C13" s="46" t="s">
-        <x:v>281</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="D13" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E13" s="47" t="s">
         <x:v>36</x:v>
@@ -5679,10 +5804,10 @@
       <x:c r="F13" s="47" t="s"/>
       <x:c r="G13" s="47"/>
       <x:c r="H13" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I13" s="48" t="s">
-        <x:v>282</x:v>
+        <x:v>288</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -5780,7 +5905,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>283</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -5803,7 +5928,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>284</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -5811,7 +5936,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>285</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -5822,7 +5947,7 @@
     </x:row>
     <x:row r="5" spans="1:9">
       <x:c r="A5" s="38" t="s">
-        <x:v>73</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B5" s="39" t="s">
         <x:v>50</x:v>
@@ -5837,7 +5962,7 @@
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" s="38" t="s">
-        <x:v>74</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B6" s="39"/>
       <x:c r="C6" s="40"/>
@@ -5850,31 +5975,31 @@
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="38" t="s">
-        <x:v>75</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B7" s="42" t="s">
-        <x:v>76</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C7" s="42" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D7" s="42" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E7" s="42" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F7" s="42" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="G7" s="42" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="H7" s="42" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I7" s="43" t="s">
         <x:v>77</x:v>
-      </x:c>
-      <x:c r="D7" s="42" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E7" s="42" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="F7" s="42" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G7" s="42" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="H7" s="42" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I7" s="43" t="s">
-        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9" ht="16.2" customHeight="1">
@@ -5882,26 +6007,26 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>286</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
-        <x:v>287</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="D8" s="47" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E8" s="47" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F8" s="47" t="s">
-        <x:v>85</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G8" s="47"/>
       <x:c r="H8" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
-        <x:v>288</x:v>
+        <x:v>294</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
@@ -5909,13 +6034,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B9" s="45" t="s">
-        <x:v>289</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
-        <x:v>180</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D9" s="47" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E9" s="47" t="s">
         <x:v>27</x:v>
@@ -5923,10 +6048,10 @@
       <x:c r="F9" s="47" t="s"/>
       <x:c r="G9" s="47"/>
       <x:c r="H9" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I9" s="48" t="s">
-        <x:v>264</x:v>
+        <x:v>270</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" ht="16.2" customHeight="1">
@@ -5934,24 +6059,24 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="45" t="s">
-        <x:v>265</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
-        <x:v>266</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="D10" s="47" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E10" s="47" t="s">
-        <x:v>92</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F10" s="47" t="s"/>
       <x:c r="G10" s="47"/>
       <x:c r="H10" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I10" s="48" t="s">
-        <x:v>266</x:v>
+        <x:v>272</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9" ht="16.2" customHeight="1">
@@ -5959,24 +6084,24 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B11" s="45" t="s">
-        <x:v>267</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="C11" s="46" t="s">
-        <x:v>268</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="D11" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E11" s="47" t="s">
-        <x:v>92</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F11" s="47" t="s"/>
       <x:c r="G11" s="47"/>
       <x:c r="H11" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I11" s="48" t="s">
-        <x:v>268</x:v>
+        <x:v>274</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9" ht="16.2" customHeight="1">
@@ -5984,24 +6109,24 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B12" s="45" t="s">
-        <x:v>269</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="C12" s="46" t="s">
-        <x:v>270</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="D12" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E12" s="47" t="s">
-        <x:v>107</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F12" s="47" t="s"/>
       <x:c r="G12" s="47"/>
       <x:c r="H12" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I12" s="48" t="s">
-        <x:v>270</x:v>
+        <x:v>276</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9" ht="16.2" customHeight="1">
@@ -6009,24 +6134,24 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B13" s="45" t="s">
-        <x:v>290</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="C13" s="46" t="s">
-        <x:v>291</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="D13" s="47" t="s">
-        <x:v>170</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E13" s="47"/>
       <x:c r="F13" s="47" t="s"/>
       <x:c r="G13" s="47" t="s">
-        <x:v>126</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="H13" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I13" s="48" t="s">
-        <x:v>291</x:v>
+        <x:v>297</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9" ht="16.2" customHeight="1">
@@ -6034,22 +6159,22 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B14" s="45" t="s">
-        <x:v>292</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="C14" s="46" t="s">
-        <x:v>293</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="D14" s="47" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E14" s="47"/>
       <x:c r="F14" s="47" t="s"/>
       <x:c r="G14" s="47"/>
       <x:c r="H14" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I14" s="48" t="s">
-        <x:v>294</x:v>
+        <x:v>300</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -6158,7 +6283,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>295</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -6181,7 +6306,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>296</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -6189,7 +6314,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>297</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -6200,7 +6325,7 @@
     </x:row>
     <x:row r="5" spans="1:9">
       <x:c r="A5" s="38" t="s">
-        <x:v>73</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B5" s="39" t="s">
         <x:v>53</x:v>
@@ -6215,7 +6340,7 @@
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" s="38" t="s">
-        <x:v>74</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B6" s="39"/>
       <x:c r="C6" s="40"/>
@@ -6228,31 +6353,31 @@
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="38" t="s">
-        <x:v>75</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B7" s="42" t="s">
-        <x:v>76</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C7" s="42" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D7" s="42" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E7" s="42" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F7" s="42" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="G7" s="42" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="H7" s="42" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I7" s="43" t="s">
         <x:v>77</x:v>
-      </x:c>
-      <x:c r="D7" s="42" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E7" s="42" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="F7" s="42" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G7" s="42" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="H7" s="42" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I7" s="43" t="s">
-        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9" ht="16.2" customHeight="1">
@@ -6260,13 +6385,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>274</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
-        <x:v>275</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="D8" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E8" s="47" t="s">
         <x:v>36</x:v>
@@ -6274,10 +6399,10 @@
       <x:c r="F8" s="47" t="s"/>
       <x:c r="G8" s="47"/>
       <x:c r="H8" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
-        <x:v>275</x:v>
+        <x:v>281</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
@@ -6285,13 +6410,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B9" s="45" t="s">
-        <x:v>298</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
-        <x:v>299</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="D9" s="47" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E9" s="47" t="s">
         <x:v>27</x:v>
@@ -6299,10 +6424,10 @@
       <x:c r="F9" s="47" t="s"/>
       <x:c r="G9" s="47"/>
       <x:c r="H9" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I9" s="48" t="s">
-        <x:v>299</x:v>
+        <x:v>305</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -6356,7 +6481,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>300</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -6379,7 +6504,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>301</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -6387,7 +6512,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>302</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -6398,7 +6523,7 @@
     </x:row>
     <x:row r="5" spans="1:9">
       <x:c r="A5" s="38" t="s">
-        <x:v>73</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B5" s="39"/>
       <x:c r="C5" s="40"/>
@@ -6411,7 +6536,7 @@
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" s="38" t="s">
-        <x:v>74</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B6" s="39"/>
       <x:c r="C6" s="40"/>
@@ -6424,31 +6549,31 @@
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="38" t="s">
-        <x:v>75</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B7" s="42" t="s">
-        <x:v>76</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C7" s="42" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D7" s="42" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E7" s="42" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F7" s="42" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="G7" s="42" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="H7" s="42" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I7" s="43" t="s">
         <x:v>77</x:v>
-      </x:c>
-      <x:c r="D7" s="42" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E7" s="42" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="F7" s="42" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G7" s="42" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="H7" s="42" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I7" s="43" t="s">
-        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9" ht="16.2" customHeight="1">
@@ -6456,19 +6581,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>83</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C8" s="46"/>
       <x:c r="D8" s="47" t="s">
-        <x:v>84</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E8" s="47"/>
       <x:c r="F8" s="47" t="s">
-        <x:v>85</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G8" s="47"/>
       <x:c r="H8" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I8" s="48"/>
     </x:row>
@@ -6477,11 +6602,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B9" s="45" t="s">
-        <x:v>87</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C9" s="46"/>
       <x:c r="D9" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E9" s="47" t="s">
         <x:v>36</x:v>
@@ -6489,7 +6614,7 @@
       <x:c r="F9" s="47" t="s"/>
       <x:c r="G9" s="47"/>
       <x:c r="H9" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I9" s="48"/>
     </x:row>
@@ -6498,11 +6623,11 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="45" t="s">
-        <x:v>89</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C10" s="46"/>
       <x:c r="D10" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E10" s="47" t="s">
         <x:v>36</x:v>
@@ -6510,7 +6635,7 @@
       <x:c r="F10" s="47" t="s"/>
       <x:c r="G10" s="47"/>
       <x:c r="H10" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I10" s="48"/>
     </x:row>
@@ -6519,19 +6644,19 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B11" s="45" t="s">
-        <x:v>90</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C11" s="46"/>
       <x:c r="D11" s="47" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E11" s="47" t="s">
-        <x:v>92</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F11" s="47" t="s"/>
       <x:c r="G11" s="47"/>
       <x:c r="H11" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I11" s="48"/>
     </x:row>
@@ -6540,17 +6665,17 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B12" s="45" t="s">
-        <x:v>93</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C12" s="46"/>
       <x:c r="D12" s="47" t="s">
-        <x:v>94</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E12" s="47"/>
       <x:c r="F12" s="47" t="s"/>
       <x:c r="G12" s="47"/>
       <x:c r="H12" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I12" s="48"/>
     </x:row>
@@ -6559,17 +6684,17 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B13" s="45" t="s">
-        <x:v>303</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="C13" s="46"/>
       <x:c r="D13" s="47" t="s">
-        <x:v>94</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E13" s="47"/>
       <x:c r="F13" s="47" t="s"/>
       <x:c r="G13" s="47"/>
       <x:c r="H13" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I13" s="48"/>
     </x:row>
@@ -6578,21 +6703,21 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B14" s="45" t="s">
-        <x:v>95</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C14" s="46"/>
       <x:c r="D14" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E14" s="47" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="F14" s="47" t="s"/>
       <x:c r="G14" s="47" t="s">
-        <x:v>304</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="H14" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I14" s="48"/>
     </x:row>
@@ -6601,19 +6726,19 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B15" s="45" t="s">
-        <x:v>97</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C15" s="46"/>
       <x:c r="D15" s="47" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E15" s="47"/>
       <x:c r="F15" s="47" t="s"/>
       <x:c r="G15" s="47" t="s">
-        <x:v>99</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H15" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I15" s="48"/>
     </x:row>
@@ -6622,21 +6747,21 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B16" s="45" t="s">
-        <x:v>100</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C16" s="46"/>
       <x:c r="D16" s="47" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E16" s="47" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F16" s="47" t="s"/>
       <x:c r="G16" s="47" t="s">
-        <x:v>102</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H16" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I16" s="48"/>
     </x:row>
@@ -6645,21 +6770,21 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="B17" s="45" t="s">
-        <x:v>305</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="C17" s="46"/>
       <x:c r="D17" s="47" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E17" s="47" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F17" s="47" t="s"/>
       <x:c r="G17" s="47" t="s">
-        <x:v>131</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H17" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I17" s="48"/>
     </x:row>
@@ -6668,17 +6793,17 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="B18" s="45" t="s">
-        <x:v>306</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="C18" s="46"/>
       <x:c r="D18" s="47" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E18" s="47"/>
       <x:c r="F18" s="47" t="s"/>
       <x:c r="G18" s="47"/>
       <x:c r="H18" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I18" s="48"/>
     </x:row>
@@ -6687,19 +6812,19 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="B19" s="45" t="s">
-        <x:v>103</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C19" s="46"/>
       <x:c r="D19" s="47" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E19" s="47" t="s">
-        <x:v>104</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F19" s="47" t="s"/>
       <x:c r="G19" s="47"/>
       <x:c r="H19" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I19" s="48"/>
     </x:row>
@@ -6708,19 +6833,19 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="B20" s="45" t="s">
-        <x:v>307</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="C20" s="46"/>
       <x:c r="D20" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E20" s="47" t="s">
-        <x:v>92</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F20" s="47" t="s"/>
       <x:c r="G20" s="47"/>
       <x:c r="H20" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I20" s="48"/>
     </x:row>
@@ -6729,19 +6854,19 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="B21" s="45" t="s">
-        <x:v>308</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="C21" s="46"/>
       <x:c r="D21" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E21" s="47" t="s">
-        <x:v>309</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="F21" s="47" t="s"/>
       <x:c r="G21" s="47"/>
       <x:c r="H21" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I21" s="48"/>
     </x:row>
@@ -6907,7 +7032,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:I47"/>
+  <x:dimension ref="A1:I49"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="C4" sqref="C4"/>
@@ -7285,11 +7410,17 @@
         <x:v>9</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:9">
-      <x:c r="A28" s="7"/>
-      <x:c r="B28" s="10"/>
-      <x:c r="C28" s="6"/>
-      <x:c r="D28" s="12"/>
+    <x:row r="28" spans="1:9" ht="16.2" customHeight="1">
+      <x:c r="A28" s="13" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="B28" s="26" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C28" s="15"/>
+      <x:c r="D28" s="16" t="s">
+        <x:v>72</x:v>
+      </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
       <x:c r="A29" s="7"/>
@@ -7404,6 +7535,18 @@
       <x:c r="B47" s="10"/>
       <x:c r="C47" s="6"/>
       <x:c r="D47" s="12"/>
+    </x:row>
+    <x:row r="48" spans="1:9">
+      <x:c r="A48" s="7"/>
+      <x:c r="B48" s="10"/>
+      <x:c r="C48" s="6"/>
+      <x:c r="D48" s="12"/>
+    </x:row>
+    <x:row r="49" spans="1:9">
+      <x:c r="A49" s="7"/>
+      <x:c r="B49" s="10"/>
+      <x:c r="C49" s="6"/>
+      <x:c r="D49" s="12"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="3">
@@ -7434,6 +7577,7 @@
     <x:hyperlink ref="B25" location="Staff!A1" display="Staff"/>
     <x:hyperlink ref="B26" location="SysParameter!A1" display="SysParameter"/>
     <x:hyperlink ref="B27" location="Vip!A1" display="Vip"/>
+    <x:hyperlink ref="B28" location="vw_LatestBid!A1" display="vw_LatestBid"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7476,7 +7620,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>310</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -7499,7 +7643,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>311</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -7507,7 +7651,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>312</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -7518,7 +7662,7 @@
     </x:row>
     <x:row r="5" spans="1:9">
       <x:c r="A5" s="38" t="s">
-        <x:v>73</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B5" s="39"/>
       <x:c r="C5" s="40"/>
@@ -7531,7 +7675,7 @@
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" s="38" t="s">
-        <x:v>74</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B6" s="39"/>
       <x:c r="C6" s="40"/>
@@ -7544,31 +7688,31 @@
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="38" t="s">
-        <x:v>75</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B7" s="42" t="s">
-        <x:v>76</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C7" s="42" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D7" s="42" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E7" s="42" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F7" s="42" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="G7" s="42" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="H7" s="42" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I7" s="43" t="s">
         <x:v>77</x:v>
-      </x:c>
-      <x:c r="D7" s="42" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E7" s="42" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="F7" s="42" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G7" s="42" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="H7" s="42" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I7" s="43" t="s">
-        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9" ht="16.2" customHeight="1">
@@ -7576,19 +7720,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>114</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C8" s="46"/>
       <x:c r="D8" s="47" t="s">
-        <x:v>84</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E8" s="47"/>
       <x:c r="F8" s="47" t="s">
-        <x:v>85</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G8" s="47"/>
       <x:c r="H8" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I8" s="48"/>
     </x:row>
@@ -7597,11 +7741,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B9" s="45" t="s">
-        <x:v>87</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C9" s="46"/>
       <x:c r="D9" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E9" s="47" t="s">
         <x:v>36</x:v>
@@ -7609,7 +7753,7 @@
       <x:c r="F9" s="47" t="s"/>
       <x:c r="G9" s="47"/>
       <x:c r="H9" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I9" s="48"/>
     </x:row>
@@ -7618,11 +7762,11 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="45" t="s">
-        <x:v>115</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C10" s="46"/>
       <x:c r="D10" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E10" s="47" t="s">
         <x:v>36</x:v>
@@ -7630,7 +7774,7 @@
       <x:c r="F10" s="47" t="s"/>
       <x:c r="G10" s="47"/>
       <x:c r="H10" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I10" s="48"/>
     </x:row>
@@ -7639,11 +7783,11 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B11" s="45" t="s">
-        <x:v>116</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C11" s="46"/>
       <x:c r="D11" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E11" s="47" t="s">
         <x:v>36</x:v>
@@ -7651,7 +7795,7 @@
       <x:c r="F11" s="47" t="s"/>
       <x:c r="G11" s="47"/>
       <x:c r="H11" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I11" s="48"/>
     </x:row>
@@ -7660,19 +7804,19 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B12" s="45" t="s">
-        <x:v>117</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C12" s="46"/>
       <x:c r="D12" s="47" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E12" s="47" t="s">
-        <x:v>92</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F12" s="47" t="s"/>
       <x:c r="G12" s="47"/>
       <x:c r="H12" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I12" s="48"/>
     </x:row>
@@ -7681,17 +7825,17 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B13" s="45" t="s">
-        <x:v>118</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C13" s="46"/>
       <x:c r="D13" s="47" t="s">
-        <x:v>94</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E13" s="47"/>
       <x:c r="F13" s="47" t="s"/>
       <x:c r="G13" s="47"/>
       <x:c r="H13" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I13" s="48"/>
     </x:row>
@@ -7700,17 +7844,17 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B14" s="45" t="s">
-        <x:v>119</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C14" s="46"/>
       <x:c r="D14" s="47" t="s">
-        <x:v>94</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E14" s="47"/>
       <x:c r="F14" s="47" t="s"/>
       <x:c r="G14" s="47"/>
       <x:c r="H14" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I14" s="48"/>
     </x:row>
@@ -7719,19 +7863,19 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B15" s="45" t="s">
-        <x:v>313</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="C15" s="46"/>
       <x:c r="D15" s="47" t="s">
-        <x:v>170</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E15" s="47"/>
       <x:c r="F15" s="47" t="s"/>
       <x:c r="G15" s="47" t="s">
-        <x:v>126</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="H15" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I15" s="48"/>
     </x:row>
@@ -7740,19 +7884,19 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B16" s="45" t="s">
-        <x:v>314</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="C16" s="46"/>
       <x:c r="D16" s="47" t="s">
-        <x:v>170</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E16" s="47"/>
       <x:c r="F16" s="47" t="s"/>
       <x:c r="G16" s="47" t="s">
-        <x:v>126</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="H16" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I16" s="48"/>
     </x:row>
@@ -7761,11 +7905,11 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="B17" s="45" t="s">
-        <x:v>120</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C17" s="46"/>
       <x:c r="D17" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E17" s="47" t="s">
         <x:v>64</x:v>
@@ -7773,7 +7917,7 @@
       <x:c r="F17" s="47" t="s"/>
       <x:c r="G17" s="47"/>
       <x:c r="H17" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I17" s="48"/>
     </x:row>
@@ -7782,19 +7926,19 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="B18" s="45" t="s">
-        <x:v>121</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C18" s="46"/>
       <x:c r="D18" s="47" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E18" s="47"/>
       <x:c r="F18" s="47" t="s"/>
       <x:c r="G18" s="47" t="s">
-        <x:v>99</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H18" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I18" s="48"/>
     </x:row>
@@ -7803,21 +7947,21 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="B19" s="45" t="s">
-        <x:v>315</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="C19" s="46"/>
       <x:c r="D19" s="47" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E19" s="47" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F19" s="47" t="s"/>
       <x:c r="G19" s="47" t="s">
-        <x:v>131</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H19" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I19" s="48"/>
     </x:row>
@@ -7826,21 +7970,21 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="B20" s="45" t="s">
-        <x:v>123</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C20" s="46"/>
       <x:c r="D20" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E20" s="47" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="F20" s="47" t="s"/>
       <x:c r="G20" s="47" t="s">
-        <x:v>124</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="H20" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I20" s="48"/>
     </x:row>
@@ -7849,19 +7993,19 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="B21" s="45" t="s">
-        <x:v>125</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C21" s="46"/>
       <x:c r="D21" s="47" t="s">
-        <x:v>94</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E21" s="47"/>
       <x:c r="F21" s="47" t="s"/>
       <x:c r="G21" s="47" t="s">
-        <x:v>126</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="H21" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I21" s="48"/>
     </x:row>
@@ -7870,17 +8014,17 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="B22" s="45" t="s">
-        <x:v>127</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C22" s="46"/>
       <x:c r="D22" s="47" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E22" s="47"/>
       <x:c r="F22" s="47" t="s"/>
       <x:c r="G22" s="47"/>
       <x:c r="H22" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I22" s="48"/>
     </x:row>
@@ -7889,19 +8033,19 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="B23" s="45" t="s">
-        <x:v>128</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C23" s="46"/>
       <x:c r="D23" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E23" s="47" t="s">
-        <x:v>107</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F23" s="47" t="s"/>
       <x:c r="G23" s="47"/>
       <x:c r="H23" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I23" s="48"/>
     </x:row>
@@ -7910,19 +8054,19 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="B24" s="45" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C24" s="46"/>
       <x:c r="D24" s="47" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E24" s="47" t="s">
-        <x:v>104</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F24" s="47" t="s"/>
       <x:c r="G24" s="47"/>
       <x:c r="H24" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I24" s="48"/>
     </x:row>
@@ -7931,21 +8075,21 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="B25" s="45" t="s">
-        <x:v>130</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C25" s="46"/>
       <x:c r="D25" s="47" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E25" s="47" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F25" s="47" t="s"/>
       <x:c r="G25" s="47" t="s">
-        <x:v>131</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H25" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I25" s="48"/>
     </x:row>
@@ -7954,17 +8098,17 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="B26" s="45" t="s">
-        <x:v>132</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C26" s="46"/>
       <x:c r="D26" s="47" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E26" s="47"/>
       <x:c r="F26" s="47" t="s"/>
       <x:c r="G26" s="47"/>
       <x:c r="H26" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I26" s="48"/>
     </x:row>
@@ -7973,19 +8117,19 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="B27" s="45" t="s">
-        <x:v>133</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="C27" s="46"/>
       <x:c r="D27" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E27" s="47" t="s">
-        <x:v>107</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F27" s="47" t="s"/>
       <x:c r="G27" s="47"/>
       <x:c r="H27" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I27" s="48"/>
     </x:row>
@@ -7994,40 +8138,40 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="B28" s="45" t="s">
-        <x:v>103</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C28" s="46"/>
       <x:c r="D28" s="47" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E28" s="47" t="s">
-        <x:v>104</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F28" s="47" t="s"/>
       <x:c r="G28" s="47"/>
       <x:c r="H28" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I28" s="48"/>
     </x:row>
     <x:row r="29" spans="1:9" ht="16.2" customHeight="1">
       <x:c r="A29" s="44" t="s">
-        <x:v>316</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B29" s="45" t="s">
-        <x:v>134</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="C29" s="46"/>
       <x:c r="D29" s="47" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E29" s="47"/>
       <x:c r="F29" s="47" t="s"/>
       <x:c r="G29" s="47" t="s">
-        <x:v>99</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H29" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I29" s="48"/>
     </x:row>
@@ -8302,7 +8446,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>317</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -8325,7 +8469,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>318</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -8333,7 +8477,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>319</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -8344,7 +8488,7 @@
     </x:row>
     <x:row r="5" spans="1:9">
       <x:c r="A5" s="38" t="s">
-        <x:v>73</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B5" s="39" t="s">
         <x:v>60</x:v>
@@ -8359,7 +8503,7 @@
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" s="38" t="s">
-        <x:v>74</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B6" s="39"/>
       <x:c r="C6" s="40"/>
@@ -8372,31 +8516,31 @@
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="38" t="s">
-        <x:v>75</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B7" s="42" t="s">
-        <x:v>76</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C7" s="42" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D7" s="42" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E7" s="42" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F7" s="42" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="G7" s="42" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="H7" s="42" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I7" s="43" t="s">
         <x:v>77</x:v>
-      </x:c>
-      <x:c r="D7" s="42" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E7" s="42" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="F7" s="42" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G7" s="42" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="H7" s="42" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I7" s="43" t="s">
-        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9" ht="16.2" customHeight="1">
@@ -8404,26 +8548,26 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>87</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
-        <x:v>138</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D8" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E8" s="47" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="F8" s="47" t="s">
-        <x:v>85</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G8" s="47"/>
       <x:c r="H8" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
-        <x:v>138</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
@@ -8431,24 +8575,24 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B9" s="45" t="s">
-        <x:v>139</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
-        <x:v>140</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D9" s="47" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E9" s="47" t="s">
-        <x:v>92</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F9" s="47" t="s"/>
       <x:c r="G9" s="47"/>
       <x:c r="H9" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I9" s="48" t="s">
-        <x:v>140</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" ht="16.2" customHeight="1">
@@ -8456,24 +8600,24 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="45" t="s">
-        <x:v>141</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
-        <x:v>142</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D10" s="47" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E10" s="47" t="s">
-        <x:v>104</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F10" s="47" t="s"/>
       <x:c r="G10" s="47"/>
       <x:c r="H10" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I10" s="48" t="s">
-        <x:v>142</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9" ht="16.2" customHeight="1">
@@ -8481,24 +8625,24 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B11" s="45" t="s">
-        <x:v>143</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C11" s="46" t="s">
-        <x:v>144</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D11" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E11" s="47" t="s">
-        <x:v>145</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F11" s="47" t="s"/>
       <x:c r="G11" s="47"/>
       <x:c r="H11" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I11" s="48" t="s">
-        <x:v>144</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9" ht="16.2" customHeight="1">
@@ -8506,22 +8650,22 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B12" s="45" t="s">
-        <x:v>146</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="C12" s="46" t="s">
-        <x:v>147</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D12" s="47" t="s">
-        <x:v>94</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E12" s="47"/>
       <x:c r="F12" s="47" t="s"/>
       <x:c r="G12" s="47"/>
       <x:c r="H12" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I12" s="48" t="s">
-        <x:v>147</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9" ht="16.2" customHeight="1">
@@ -8529,22 +8673,22 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B13" s="45" t="s">
-        <x:v>320</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="C13" s="46" t="s">
-        <x:v>321</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="D13" s="47" t="s">
-        <x:v>94</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E13" s="47"/>
       <x:c r="F13" s="47" t="s"/>
       <x:c r="G13" s="47"/>
       <x:c r="H13" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I13" s="48" t="s">
-        <x:v>321</x:v>
+        <x:v>326</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9" ht="16.2" customHeight="1">
@@ -8552,13 +8696,13 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B14" s="45" t="s">
-        <x:v>322</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="C14" s="46" t="s">
-        <x:v>323</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="D14" s="47" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E14" s="47" t="s">
         <x:v>21</x:v>
@@ -8566,10 +8710,10 @@
       <x:c r="F14" s="47" t="s"/>
       <x:c r="G14" s="47"/>
       <x:c r="H14" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I14" s="48" t="s">
-        <x:v>324</x:v>
+        <x:v>329</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9" ht="16.2" customHeight="1">
@@ -8577,26 +8721,26 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B15" s="45" t="s">
-        <x:v>325</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="C15" s="46" t="s">
-        <x:v>323</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="D15" s="47" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E15" s="47" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="F15" s="47" t="s"/>
       <x:c r="G15" s="47" t="s">
-        <x:v>154</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="H15" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I15" s="48" t="s">
-        <x:v>324</x:v>
+        <x:v>329</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9" ht="16.2" customHeight="1">
@@ -8604,21 +8748,21 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B16" s="45" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C16" s="46"/>
       <x:c r="D16" s="47" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E16" s="47" t="s">
         <x:v>64</x:v>
       </x:c>
       <x:c r="F16" s="47" t="s"/>
       <x:c r="G16" s="47" t="s">
-        <x:v>150</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="H16" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I16" s="48"/>
     </x:row>
@@ -8627,19 +8771,19 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="B17" s="45" t="s">
-        <x:v>326</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="C17" s="46"/>
       <x:c r="D17" s="47" t="s">
-        <x:v>170</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E17" s="47"/>
       <x:c r="F17" s="47" t="s"/>
       <x:c r="G17" s="47" t="s">
-        <x:v>126</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="H17" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I17" s="48"/>
     </x:row>
@@ -8648,19 +8792,19 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="B18" s="45" t="s">
-        <x:v>151</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C18" s="46"/>
       <x:c r="D18" s="47" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E18" s="47"/>
       <x:c r="F18" s="47" t="s"/>
       <x:c r="G18" s="47" t="s">
-        <x:v>99</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H18" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I18" s="48"/>
     </x:row>
@@ -8669,19 +8813,19 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="B19" s="45" t="s">
-        <x:v>152</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="C19" s="46"/>
       <x:c r="D19" s="47" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E19" s="47"/>
       <x:c r="F19" s="47" t="s"/>
       <x:c r="G19" s="47" t="s">
-        <x:v>99</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H19" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I19" s="48"/>
     </x:row>
@@ -8690,21 +8834,21 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="B20" s="45" t="s">
-        <x:v>153</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="C20" s="46"/>
       <x:c r="D20" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E20" s="47" t="s">
-        <x:v>92</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F20" s="47" t="s"/>
       <x:c r="G20" s="47" t="s">
-        <x:v>154</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="H20" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I20" s="48"/>
     </x:row>
@@ -8880,7 +9024,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>327</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -8903,7 +9047,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>328</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -8911,7 +9055,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>329</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -8922,7 +9066,7 @@
     </x:row>
     <x:row r="5" spans="1:9">
       <x:c r="A5" s="38" t="s">
-        <x:v>73</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B5" s="39" t="s">
         <x:v>63</x:v>
@@ -8937,7 +9081,7 @@
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" s="38" t="s">
-        <x:v>74</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B6" s="39"/>
       <x:c r="C6" s="40"/>
@@ -8950,31 +9094,31 @@
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="38" t="s">
-        <x:v>75</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B7" s="42" t="s">
-        <x:v>76</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C7" s="42" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D7" s="42" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E7" s="42" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F7" s="42" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="G7" s="42" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="H7" s="42" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I7" s="43" t="s">
         <x:v>77</x:v>
-      </x:c>
-      <x:c r="D7" s="42" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E7" s="42" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="F7" s="42" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G7" s="42" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="H7" s="42" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I7" s="43" t="s">
-        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9" ht="16.2" customHeight="1">
@@ -8982,26 +9126,26 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>158</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
-        <x:v>330</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="D8" s="47" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E8" s="47" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="F8" s="47" t="s">
         <x:v>88</x:v>
-      </x:c>
-      <x:c r="E8" s="47" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="F8" s="47" t="s">
-        <x:v>85</x:v>
       </x:c>
       <x:c r="G8" s="47"/>
       <x:c r="H8" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
-        <x:v>330</x:v>
+        <x:v>335</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
@@ -9009,24 +9153,24 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B9" s="45" t="s">
-        <x:v>331</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
-        <x:v>332</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="D9" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E9" s="47" t="s">
-        <x:v>107</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F9" s="47" t="s"/>
       <x:c r="G9" s="47"/>
       <x:c r="H9" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I9" s="48" t="s">
-        <x:v>332</x:v>
+        <x:v>337</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" ht="16.2" customHeight="1">
@@ -9034,24 +9178,24 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="45" t="s">
-        <x:v>333</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
-        <x:v>334</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="D10" s="47" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E10" s="47" t="s">
-        <x:v>92</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F10" s="47" t="s"/>
       <x:c r="G10" s="47"/>
       <x:c r="H10" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I10" s="48" t="s">
-        <x:v>334</x:v>
+        <x:v>339</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9" ht="16.2" customHeight="1">
@@ -9059,24 +9203,24 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B11" s="45" t="s">
-        <x:v>335</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="C11" s="46" t="s">
-        <x:v>336</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="D11" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E11" s="47" t="s">
-        <x:v>107</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F11" s="47" t="s"/>
       <x:c r="G11" s="47"/>
       <x:c r="H11" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I11" s="48" t="s">
-        <x:v>336</x:v>
+        <x:v>341</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9" ht="16.2" customHeight="1">
@@ -9084,24 +9228,24 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B12" s="45" t="s">
-        <x:v>337</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="C12" s="46" t="s">
-        <x:v>338</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="D12" s="47" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E12" s="47" t="s">
-        <x:v>104</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F12" s="47" t="s"/>
       <x:c r="G12" s="47"/>
       <x:c r="H12" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I12" s="48" t="s">
-        <x:v>339</x:v>
+        <x:v>344</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9" ht="16.2" customHeight="1">
@@ -9109,26 +9253,26 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B13" s="45" t="s">
-        <x:v>199</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="C13" s="46" t="s">
-        <x:v>74</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D13" s="47" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E13" s="47" t="s">
-        <x:v>104</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F13" s="47" t="s"/>
       <x:c r="G13" s="47" t="s">
-        <x:v>154</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="H13" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I13" s="48" t="s">
-        <x:v>74</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9" ht="16.2" customHeight="1">
@@ -9136,13 +9280,13 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B14" s="45" t="s">
-        <x:v>340</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="C14" s="46" t="s">
-        <x:v>341</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="D14" s="47" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E14" s="47" t="s">
         <x:v>10</x:v>
@@ -9150,10 +9294,10 @@
       <x:c r="F14" s="47" t="s"/>
       <x:c r="G14" s="47"/>
       <x:c r="H14" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I14" s="48" t="s">
-        <x:v>342</x:v>
+        <x:v>347</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -9262,7 +9406,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>343</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -9285,7 +9429,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>344</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -9293,7 +9437,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>345</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -9304,7 +9448,7 @@
     </x:row>
     <x:row r="5" spans="1:9">
       <x:c r="A5" s="38" t="s">
-        <x:v>73</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B5" s="39" t="s">
         <x:v>66</x:v>
@@ -9319,7 +9463,7 @@
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" s="38" t="s">
-        <x:v>74</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B6" s="39"/>
       <x:c r="C6" s="40"/>
@@ -9332,31 +9476,31 @@
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="38" t="s">
-        <x:v>75</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B7" s="42" t="s">
-        <x:v>76</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C7" s="42" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D7" s="42" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E7" s="42" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F7" s="42" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="G7" s="42" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="H7" s="42" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I7" s="43" t="s">
         <x:v>77</x:v>
-      </x:c>
-      <x:c r="D7" s="42" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E7" s="42" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="F7" s="42" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G7" s="42" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="H7" s="42" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I7" s="43" t="s">
-        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9" ht="16.2" customHeight="1">
@@ -9364,26 +9508,26 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>346</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
-        <x:v>347</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="D8" s="47" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E8" s="47" t="s">
+        <x:v>353</x:v>
+      </x:c>
+      <x:c r="F8" s="47" t="s">
         <x:v>88</x:v>
-      </x:c>
-      <x:c r="E8" s="47" t="s">
-        <x:v>348</x:v>
-      </x:c>
-      <x:c r="F8" s="47" t="s">
-        <x:v>85</x:v>
       </x:c>
       <x:c r="G8" s="47"/>
       <x:c r="H8" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
-        <x:v>347</x:v>
+        <x:v>352</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
@@ -9391,24 +9535,24 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B9" s="45" t="s">
-        <x:v>139</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
-        <x:v>349</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="D9" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E9" s="47" t="s">
-        <x:v>92</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F9" s="47" t="s"/>
       <x:c r="G9" s="47"/>
       <x:c r="H9" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I9" s="48" t="s">
-        <x:v>349</x:v>
+        <x:v>354</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" ht="16.2" customHeight="1">
@@ -9416,24 +9560,24 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="45" t="s">
-        <x:v>216</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
-        <x:v>350</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="D10" s="47" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E10" s="47" t="s">
-        <x:v>104</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F10" s="47" t="s"/>
       <x:c r="G10" s="47"/>
       <x:c r="H10" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I10" s="48" t="s">
-        <x:v>350</x:v>
+        <x:v>355</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9" ht="16.2" customHeight="1">
@@ -9441,24 +9585,24 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B11" s="45" t="s">
-        <x:v>280</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="C11" s="46" t="s">
-        <x:v>351</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="D11" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E11" s="47" t="s">
-        <x:v>92</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F11" s="47" t="s"/>
       <x:c r="G11" s="47"/>
       <x:c r="H11" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I11" s="48" t="s">
-        <x:v>352</x:v>
+        <x:v>357</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9" ht="16.2" customHeight="1">
@@ -9466,26 +9610,26 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B12" s="45" t="s">
-        <x:v>199</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="C12" s="46" t="s">
-        <x:v>74</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D12" s="47" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E12" s="47" t="s">
-        <x:v>92</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F12" s="47" t="s"/>
       <x:c r="G12" s="47" t="s">
-        <x:v>154</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="H12" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I12" s="48" t="s">
-        <x:v>74</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -9572,7 +9716,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>353</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -9595,7 +9739,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>354</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -9603,7 +9747,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>355</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -9614,7 +9758,7 @@
     </x:row>
     <x:row r="5" spans="1:9">
       <x:c r="A5" s="38" t="s">
-        <x:v>73</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B5" s="39" t="s">
         <x:v>69</x:v>
@@ -9629,7 +9773,7 @@
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" s="38" t="s">
-        <x:v>74</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B6" s="39"/>
       <x:c r="C6" s="40"/>
@@ -9642,31 +9786,31 @@
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="38" t="s">
-        <x:v>75</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B7" s="42" t="s">
-        <x:v>76</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C7" s="42" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D7" s="42" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E7" s="42" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F7" s="42" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="G7" s="42" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="H7" s="42" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I7" s="43" t="s">
         <x:v>77</x:v>
-      </x:c>
-      <x:c r="D7" s="42" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E7" s="42" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="F7" s="42" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G7" s="42" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="H7" s="42" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I7" s="43" t="s">
-        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9" ht="16.2" customHeight="1">
@@ -9674,26 +9818,26 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>89</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
-        <x:v>242</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="D8" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E8" s="47" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="F8" s="47" t="s">
-        <x:v>85</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G8" s="47"/>
       <x:c r="H8" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
-        <x:v>242</x:v>
+        <x:v>248</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
@@ -9701,24 +9845,24 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B9" s="45" t="s">
-        <x:v>356</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
-        <x:v>357</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="D9" s="47" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E9" s="47" t="s">
-        <x:v>92</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F9" s="47" t="s"/>
       <x:c r="G9" s="47"/>
       <x:c r="H9" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I9" s="48" t="s">
-        <x:v>357</x:v>
+        <x:v>362</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" ht="16.2" customHeight="1">
@@ -9726,24 +9870,24 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="45" t="s">
-        <x:v>358</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
-        <x:v>359</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="D10" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E10" s="47" t="s">
-        <x:v>92</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F10" s="47" t="s"/>
       <x:c r="G10" s="47"/>
       <x:c r="H10" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I10" s="48" t="s">
-        <x:v>359</x:v>
+        <x:v>364</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9" ht="16.2" customHeight="1">
@@ -9751,24 +9895,24 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B11" s="45" t="s">
-        <x:v>360</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="C11" s="46" t="s">
-        <x:v>361</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="D11" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E11" s="47" t="s">
-        <x:v>107</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F11" s="47" t="s"/>
       <x:c r="G11" s="47"/>
       <x:c r="H11" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I11" s="48" t="s">
-        <x:v>361</x:v>
+        <x:v>366</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9" ht="16.2" customHeight="1">
@@ -9776,13 +9920,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B12" s="45" t="s">
-        <x:v>362</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="C12" s="46" t="s">
-        <x:v>363</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="D12" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E12" s="47" t="s">
         <x:v>36</x:v>
@@ -9790,10 +9934,10 @@
       <x:c r="F12" s="47" t="s"/>
       <x:c r="G12" s="47"/>
       <x:c r="H12" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I12" s="48" t="s">
-        <x:v>363</x:v>
+        <x:v>368</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9" ht="16.2" customHeight="1">
@@ -9801,13 +9945,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B13" s="45" t="s">
-        <x:v>364</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="C13" s="46" t="s">
-        <x:v>365</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="D13" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E13" s="47" t="s">
         <x:v>36</x:v>
@@ -9815,10 +9959,10 @@
       <x:c r="F13" s="47" t="s"/>
       <x:c r="G13" s="47"/>
       <x:c r="H13" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I13" s="48" t="s">
-        <x:v>365</x:v>
+        <x:v>370</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9" ht="16.2" customHeight="1">
@@ -9826,26 +9970,26 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B14" s="45" t="s">
-        <x:v>366</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="C14" s="46" t="s">
-        <x:v>367</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="D14" s="47" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E14" s="47" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F14" s="47" t="s"/>
       <x:c r="G14" s="47" t="s">
-        <x:v>131</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H14" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I14" s="48" t="s">
-        <x:v>367</x:v>
+        <x:v>372</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9" ht="16.2" customHeight="1">
@@ -9853,24 +9997,24 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B15" s="45" t="s">
-        <x:v>368</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="C15" s="46" t="s">
-        <x:v>369</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="D15" s="47" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E15" s="47" t="s">
-        <x:v>92</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F15" s="47" t="s"/>
       <x:c r="G15" s="47"/>
       <x:c r="H15" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I15" s="48" t="s">
-        <x:v>369</x:v>
+        <x:v>374</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9" ht="16.2" customHeight="1">
@@ -9878,13 +10022,13 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B16" s="45" t="s">
-        <x:v>370</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="C16" s="46" t="s">
-        <x:v>371</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="D16" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E16" s="47" t="s">
         <x:v>64</x:v>
@@ -9892,10 +10036,10 @@
       <x:c r="F16" s="47" t="s"/>
       <x:c r="G16" s="47"/>
       <x:c r="H16" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I16" s="48" t="s">
-        <x:v>371</x:v>
+        <x:v>376</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -9974,6 +10118,316 @@
       <x:c r="G23" s="1"/>
       <x:c r="H23" s="1"/>
       <x:c r="I23" s="29"/>
+    </x:row>
+  </x:sheetData>
+  <x:mergeCells count="7">
+    <x:mergeCell ref="A1:I1"/>
+    <x:mergeCell ref="A2:B2"/>
+    <x:mergeCell ref="A4:B4"/>
+    <x:mergeCell ref="C4:D4"/>
+    <x:mergeCell ref="E4:H4"/>
+    <x:mergeCell ref="B5:I5"/>
+    <x:mergeCell ref="B6:I6"/>
+  </x:mergeCells>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7480314960629921" right="0.7480314960629921" top="0.984251968503937" bottom="0.984251968503937" header="0.5118110236220472" footer="0.5118110236220472"/>
+  <x:pageSetup paperSize="9" scale="60" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="0">
+    <x:oddHeader>&amp;R&amp;"Tahoma,標準"Page &amp;P of &amp;N</x:oddHeader>
+    <x:oddFooter/>
+    <x:evenHeader/>
+    <x:evenFooter/>
+    <x:firstHeader/>
+    <x:firstFooter/>
+  </x:headerFooter>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:I17"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="B6" sqref="B6 B6:I6"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="16.2"/>
+  <x:cols>
+    <x:col min="1" max="1" width="5.886719" style="27" customWidth="1"/>
+    <x:col min="2" max="2" width="22.886719" style="28" customWidth="1"/>
+    <x:col min="3" max="3" width="27" style="2" customWidth="1"/>
+    <x:col min="4" max="4" width="14.332031" style="1" customWidth="1"/>
+    <x:col min="5" max="5" width="6.109375" style="1" customWidth="1"/>
+    <x:col min="6" max="6" width="5.664062" style="1" customWidth="1"/>
+    <x:col min="7" max="7" width="6.441406" style="1" customWidth="1"/>
+    <x:col min="8" max="8" width="5.441406" style="1" customWidth="1"/>
+    <x:col min="9" max="9" width="41.109375" style="29" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
+      <x:c r="A1" s="22" t="s">
+        <x:v>377</x:v>
+      </x:c>
+      <x:c r="B1" s="22"/>
+      <x:c r="C1" s="22"/>
+      <x:c r="D1" s="22"/>
+      <x:c r="E1" s="22"/>
+      <x:c r="F1" s="22"/>
+      <x:c r="G1" s="22"/>
+      <x:c r="H1" s="22"/>
+      <x:c r="I1" s="22"/>
+    </x:row>
+    <x:row r="2" spans="1:9">
+      <x:c r="A2" s="17" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B2" s="17"/>
+    </x:row>
+    <x:row r="3" spans="1:9">
+      <x:c r="A3" s="30"/>
+      <x:c r="B3" s="31"/>
+    </x:row>
+    <x:row r="4" spans="1:9">
+      <x:c r="A4" s="32" t="s">
+        <x:v>378</x:v>
+      </x:c>
+      <x:c r="B4" s="33"/>
+      <x:c r="C4" s="34" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D4" s="35"/>
+      <x:c r="E4" s="32" t="s">
+        <x:v>379</x:v>
+      </x:c>
+      <x:c r="F4" s="36"/>
+      <x:c r="G4" s="36"/>
+      <x:c r="H4" s="33"/>
+      <x:c r="I4" s="37" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:9">
+      <x:c r="A5" s="38" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B5" s="39"/>
+      <x:c r="C5" s="40"/>
+      <x:c r="D5" s="40"/>
+      <x:c r="E5" s="40"/>
+      <x:c r="F5" s="40"/>
+      <x:c r="G5" s="40"/>
+      <x:c r="H5" s="40"/>
+      <x:c r="I5" s="41"/>
+    </x:row>
+    <x:row r="6" spans="1:9">
+      <x:c r="A6" s="38" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B6" s="39"/>
+      <x:c r="C6" s="40"/>
+      <x:c r="D6" s="40"/>
+      <x:c r="E6" s="40"/>
+      <x:c r="F6" s="40"/>
+      <x:c r="G6" s="40"/>
+      <x:c r="H6" s="40"/>
+      <x:c r="I6" s="41"/>
+    </x:row>
+    <x:row r="7" spans="1:9">
+      <x:c r="A7" s="38" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B7" s="42" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C7" s="42" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D7" s="42" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E7" s="42" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F7" s="42" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="G7" s="42" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="H7" s="42" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I7" s="43" t="s">
+        <x:v>77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:9" ht="16.2" customHeight="1">
+      <x:c r="A8" s="44" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B8" s="45" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C8" s="46"/>
+      <x:c r="D8" s="47" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E8" s="47" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F8" s="47" t="s"/>
+      <x:c r="G8" s="47"/>
+      <x:c r="H8" s="47" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="I8" s="48"/>
+    </x:row>
+    <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
+      <x:c r="A9" s="44" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B9" s="45" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C9" s="46"/>
+      <x:c r="D9" s="47" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E9" s="47" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F9" s="47" t="s"/>
+      <x:c r="G9" s="47"/>
+      <x:c r="H9" s="47" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="I9" s="48"/>
+    </x:row>
+    <x:row r="10" spans="1:9" ht="16.2" customHeight="1">
+      <x:c r="A10" s="44" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B10" s="45" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C10" s="46"/>
+      <x:c r="D10" s="47" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E10" s="47" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="F10" s="47" t="s"/>
+      <x:c r="G10" s="47"/>
+      <x:c r="H10" s="47" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="I10" s="48"/>
+    </x:row>
+    <x:row r="11" spans="1:9" ht="16.2" customHeight="1">
+      <x:c r="A11" s="44" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B11" s="45" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C11" s="46"/>
+      <x:c r="D11" s="47" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E11" s="47"/>
+      <x:c r="F11" s="47" t="s"/>
+      <x:c r="G11" s="47"/>
+      <x:c r="H11" s="47" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="I11" s="48"/>
+    </x:row>
+    <x:row r="12" spans="1:9" ht="16.2" customHeight="1">
+      <x:c r="A12" s="44" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B12" s="45" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C12" s="46"/>
+      <x:c r="D12" s="47" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="E12" s="47"/>
+      <x:c r="F12" s="47" t="s"/>
+      <x:c r="G12" s="47"/>
+      <x:c r="H12" s="47" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="I12" s="48"/>
+    </x:row>
+    <x:row r="13" spans="1:9" ht="16.2" customHeight="1">
+      <x:c r="A13" s="44" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B13" s="45" t="s">
+        <x:v>380</x:v>
+      </x:c>
+      <x:c r="C13" s="46"/>
+      <x:c r="D13" s="47" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E13" s="47"/>
+      <x:c r="F13" s="47" t="s"/>
+      <x:c r="G13" s="47"/>
+      <x:c r="H13" s="47" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="I13" s="48"/>
+    </x:row>
+    <x:row r="14" spans="1:9">
+      <x:c r="A14" s="27"/>
+      <x:c r="B14" s="28"/>
+      <x:c r="C14" s="2"/>
+      <x:c r="D14" s="1"/>
+      <x:c r="E14" s="1"/>
+      <x:c r="F14" s="1"/>
+      <x:c r="G14" s="1"/>
+      <x:c r="H14" s="1"/>
+      <x:c r="I14" s="29"/>
+    </x:row>
+    <x:row r="15" spans="1:9">
+      <x:c r="A15" s="27"/>
+      <x:c r="B15" s="28"/>
+      <x:c r="C15" s="2"/>
+      <x:c r="D15" s="1"/>
+      <x:c r="E15" s="1"/>
+      <x:c r="F15" s="1"/>
+      <x:c r="G15" s="1"/>
+      <x:c r="H15" s="1"/>
+      <x:c r="I15" s="29"/>
+    </x:row>
+    <x:row r="16" spans="1:9">
+      <x:c r="A16" s="27"/>
+      <x:c r="B16" s="28"/>
+      <x:c r="C16" s="2"/>
+      <x:c r="D16" s="1"/>
+      <x:c r="E16" s="1"/>
+      <x:c r="F16" s="1"/>
+      <x:c r="G16" s="1"/>
+      <x:c r="H16" s="1"/>
+      <x:c r="I16" s="29"/>
+    </x:row>
+    <x:row r="17" spans="1:9">
+      <x:c r="A17" s="27"/>
+      <x:c r="B17" s="28"/>
+      <x:c r="C17" s="2"/>
+      <x:c r="D17" s="1"/>
+      <x:c r="E17" s="1"/>
+      <x:c r="F17" s="1"/>
+      <x:c r="G17" s="1"/>
+      <x:c r="H17" s="1"/>
+      <x:c r="I17" s="29"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="7">
@@ -10026,7 +10480,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>70</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -10049,7 +10503,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>71</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -10057,7 +10511,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>72</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -10068,7 +10522,7 @@
     </x:row>
     <x:row r="5" spans="1:9">
       <x:c r="A5" s="38" t="s">
-        <x:v>73</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B5" s="39"/>
       <x:c r="C5" s="40"/>
@@ -10081,7 +10535,7 @@
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" s="38" t="s">
-        <x:v>74</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B6" s="39"/>
       <x:c r="C6" s="40"/>
@@ -10094,31 +10548,31 @@
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="38" t="s">
-        <x:v>75</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B7" s="42" t="s">
-        <x:v>76</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C7" s="42" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D7" s="42" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E7" s="42" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F7" s="42" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="G7" s="42" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="H7" s="42" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I7" s="43" t="s">
         <x:v>77</x:v>
-      </x:c>
-      <x:c r="D7" s="42" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E7" s="42" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="F7" s="42" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G7" s="42" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="H7" s="42" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I7" s="43" t="s">
-        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9" ht="16.2" customHeight="1">
@@ -10126,19 +10580,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>83</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C8" s="46"/>
       <x:c r="D8" s="47" t="s">
-        <x:v>84</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E8" s="47"/>
       <x:c r="F8" s="47" t="s">
-        <x:v>85</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G8" s="47"/>
       <x:c r="H8" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I8" s="48"/>
     </x:row>
@@ -10147,11 +10601,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B9" s="45" t="s">
-        <x:v>87</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C9" s="46"/>
       <x:c r="D9" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E9" s="47" t="s">
         <x:v>36</x:v>
@@ -10159,7 +10613,7 @@
       <x:c r="F9" s="47" t="s"/>
       <x:c r="G9" s="47"/>
       <x:c r="H9" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I9" s="48"/>
     </x:row>
@@ -10168,11 +10622,11 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="45" t="s">
-        <x:v>89</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C10" s="46"/>
       <x:c r="D10" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E10" s="47" t="s">
         <x:v>36</x:v>
@@ -10180,7 +10634,7 @@
       <x:c r="F10" s="47" t="s"/>
       <x:c r="G10" s="47"/>
       <x:c r="H10" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I10" s="48"/>
     </x:row>
@@ -10189,19 +10643,19 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B11" s="45" t="s">
-        <x:v>90</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C11" s="46"/>
       <x:c r="D11" s="47" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E11" s="47" t="s">
-        <x:v>92</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F11" s="47" t="s"/>
       <x:c r="G11" s="47"/>
       <x:c r="H11" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I11" s="48"/>
     </x:row>
@@ -10210,17 +10664,17 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B12" s="45" t="s">
-        <x:v>93</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C12" s="46"/>
       <x:c r="D12" s="47" t="s">
-        <x:v>94</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E12" s="47"/>
       <x:c r="F12" s="47" t="s"/>
       <x:c r="G12" s="47"/>
       <x:c r="H12" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I12" s="48"/>
     </x:row>
@@ -10229,21 +10683,21 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B13" s="45" t="s">
-        <x:v>95</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C13" s="46"/>
       <x:c r="D13" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E13" s="47" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="F13" s="47" t="s"/>
       <x:c r="G13" s="47" t="s">
-        <x:v>96</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="H13" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I13" s="48"/>
     </x:row>
@@ -10252,19 +10706,19 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B14" s="45" t="s">
-        <x:v>97</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C14" s="46"/>
       <x:c r="D14" s="47" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E14" s="47"/>
       <x:c r="F14" s="47" t="s"/>
       <x:c r="G14" s="47" t="s">
-        <x:v>99</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H14" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I14" s="48"/>
     </x:row>
@@ -10273,21 +10727,21 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B15" s="45" t="s">
-        <x:v>100</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C15" s="46"/>
       <x:c r="D15" s="47" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E15" s="47" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F15" s="47" t="s"/>
       <x:c r="G15" s="47" t="s">
-        <x:v>102</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H15" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I15" s="48"/>
     </x:row>
@@ -10296,19 +10750,19 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B16" s="45" t="s">
-        <x:v>103</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C16" s="46"/>
       <x:c r="D16" s="47" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E16" s="47" t="s">
-        <x:v>104</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F16" s="47" t="s"/>
       <x:c r="G16" s="47"/>
       <x:c r="H16" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I16" s="48"/>
     </x:row>
@@ -10317,19 +10771,19 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="B17" s="45" t="s">
-        <x:v>106</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C17" s="46"/>
       <x:c r="D17" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E17" s="47" t="s">
-        <x:v>107</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F17" s="47" t="s"/>
       <x:c r="G17" s="47"/>
       <x:c r="H17" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I17" s="48"/>
     </x:row>
@@ -10338,19 +10792,19 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="B18" s="45" t="s">
-        <x:v>108</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C18" s="46"/>
       <x:c r="D18" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E18" s="47" t="s">
-        <x:v>107</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F18" s="47" t="s"/>
       <x:c r="G18" s="47"/>
       <x:c r="H18" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I18" s="48"/>
     </x:row>
@@ -10359,21 +10813,21 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="B19" s="45" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C19" s="46"/>
       <x:c r="D19" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E19" s="47" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="F19" s="47" t="s"/>
       <x:c r="G19" s="47" t="s">
-        <x:v>110</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="H19" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I19" s="48"/>
     </x:row>
@@ -10538,7 +10992,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>111</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -10561,7 +11015,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>112</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -10569,7 +11023,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -10580,7 +11034,7 @@
     </x:row>
     <x:row r="5" spans="1:9">
       <x:c r="A5" s="38" t="s">
-        <x:v>73</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B5" s="39"/>
       <x:c r="C5" s="40"/>
@@ -10593,7 +11047,7 @@
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" s="38" t="s">
-        <x:v>74</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B6" s="39"/>
       <x:c r="C6" s="40"/>
@@ -10606,31 +11060,31 @@
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="38" t="s">
-        <x:v>75</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B7" s="42" t="s">
-        <x:v>76</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C7" s="42" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D7" s="42" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E7" s="42" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F7" s="42" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="G7" s="42" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="H7" s="42" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I7" s="43" t="s">
         <x:v>77</x:v>
-      </x:c>
-      <x:c r="D7" s="42" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E7" s="42" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="F7" s="42" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G7" s="42" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="H7" s="42" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I7" s="43" t="s">
-        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9" ht="16.2" customHeight="1">
@@ -10638,19 +11092,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>114</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C8" s="46"/>
       <x:c r="D8" s="47" t="s">
-        <x:v>84</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E8" s="47"/>
       <x:c r="F8" s="47" t="s">
-        <x:v>85</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G8" s="47"/>
       <x:c r="H8" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I8" s="48"/>
     </x:row>
@@ -10659,11 +11113,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B9" s="45" t="s">
-        <x:v>87</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C9" s="46"/>
       <x:c r="D9" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E9" s="47" t="s">
         <x:v>36</x:v>
@@ -10671,7 +11125,7 @@
       <x:c r="F9" s="47" t="s"/>
       <x:c r="G9" s="47"/>
       <x:c r="H9" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I9" s="48"/>
     </x:row>
@@ -10680,11 +11134,11 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="45" t="s">
-        <x:v>115</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C10" s="46"/>
       <x:c r="D10" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E10" s="47" t="s">
         <x:v>36</x:v>
@@ -10692,7 +11146,7 @@
       <x:c r="F10" s="47" t="s"/>
       <x:c r="G10" s="47"/>
       <x:c r="H10" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I10" s="48"/>
     </x:row>
@@ -10701,11 +11155,11 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B11" s="45" t="s">
-        <x:v>116</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C11" s="46"/>
       <x:c r="D11" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E11" s="47" t="s">
         <x:v>36</x:v>
@@ -10713,7 +11167,7 @@
       <x:c r="F11" s="47" t="s"/>
       <x:c r="G11" s="47"/>
       <x:c r="H11" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I11" s="48"/>
     </x:row>
@@ -10722,19 +11176,19 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B12" s="45" t="s">
-        <x:v>117</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C12" s="46"/>
       <x:c r="D12" s="47" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E12" s="47" t="s">
-        <x:v>92</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F12" s="47" t="s"/>
       <x:c r="G12" s="47"/>
       <x:c r="H12" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I12" s="48"/>
     </x:row>
@@ -10743,17 +11197,17 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B13" s="45" t="s">
-        <x:v>118</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C13" s="46"/>
       <x:c r="D13" s="47" t="s">
-        <x:v>94</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E13" s="47"/>
       <x:c r="F13" s="47" t="s"/>
       <x:c r="G13" s="47"/>
       <x:c r="H13" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I13" s="48"/>
     </x:row>
@@ -10762,17 +11216,17 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B14" s="45" t="s">
-        <x:v>119</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C14" s="46"/>
       <x:c r="D14" s="47" t="s">
-        <x:v>94</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E14" s="47"/>
       <x:c r="F14" s="47" t="s"/>
       <x:c r="G14" s="47"/>
       <x:c r="H14" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I14" s="48"/>
     </x:row>
@@ -10781,11 +11235,11 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B15" s="45" t="s">
-        <x:v>120</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C15" s="46"/>
       <x:c r="D15" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E15" s="47" t="s">
         <x:v>64</x:v>
@@ -10793,7 +11247,7 @@
       <x:c r="F15" s="47" t="s"/>
       <x:c r="G15" s="47"/>
       <x:c r="H15" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I15" s="48"/>
     </x:row>
@@ -10802,19 +11256,19 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B16" s="45" t="s">
-        <x:v>121</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C16" s="46"/>
       <x:c r="D16" s="47" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E16" s="47"/>
       <x:c r="F16" s="47" t="s"/>
       <x:c r="G16" s="47" t="s">
-        <x:v>99</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H16" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I16" s="48"/>
     </x:row>
@@ -10823,19 +11277,19 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="B17" s="45" t="s">
-        <x:v>122</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C17" s="46"/>
       <x:c r="D17" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E17" s="47" t="s">
-        <x:v>107</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F17" s="47" t="s"/>
       <x:c r="G17" s="47"/>
       <x:c r="H17" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I17" s="48"/>
     </x:row>
@@ -10844,21 +11298,21 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="B18" s="45" t="s">
-        <x:v>123</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C18" s="46"/>
       <x:c r="D18" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E18" s="47" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="F18" s="47" t="s"/>
       <x:c r="G18" s="47" t="s">
-        <x:v>124</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="H18" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I18" s="48"/>
     </x:row>
@@ -10867,19 +11321,19 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="B19" s="45" t="s">
-        <x:v>125</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C19" s="46"/>
       <x:c r="D19" s="47" t="s">
-        <x:v>94</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E19" s="47"/>
       <x:c r="F19" s="47" t="s"/>
       <x:c r="G19" s="47" t="s">
-        <x:v>126</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="H19" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I19" s="48"/>
     </x:row>
@@ -10888,17 +11342,17 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="B20" s="45" t="s">
-        <x:v>127</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C20" s="46"/>
       <x:c r="D20" s="47" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E20" s="47"/>
       <x:c r="F20" s="47" t="s"/>
       <x:c r="G20" s="47"/>
       <x:c r="H20" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I20" s="48"/>
     </x:row>
@@ -10907,19 +11361,19 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="B21" s="45" t="s">
-        <x:v>128</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C21" s="46"/>
       <x:c r="D21" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E21" s="47" t="s">
-        <x:v>107</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F21" s="47" t="s"/>
       <x:c r="G21" s="47"/>
       <x:c r="H21" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I21" s="48"/>
     </x:row>
@@ -10928,19 +11382,19 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="B22" s="45" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C22" s="46"/>
       <x:c r="D22" s="47" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E22" s="47" t="s">
-        <x:v>104</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F22" s="47" t="s"/>
       <x:c r="G22" s="47"/>
       <x:c r="H22" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I22" s="48"/>
     </x:row>
@@ -10949,21 +11403,21 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="B23" s="45" t="s">
-        <x:v>130</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C23" s="46"/>
       <x:c r="D23" s="47" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E23" s="47" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F23" s="47" t="s"/>
       <x:c r="G23" s="47" t="s">
-        <x:v>131</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H23" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I23" s="48"/>
     </x:row>
@@ -10972,17 +11426,17 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="B24" s="45" t="s">
-        <x:v>132</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C24" s="46"/>
       <x:c r="D24" s="47" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E24" s="47"/>
       <x:c r="F24" s="47" t="s"/>
       <x:c r="G24" s="47"/>
       <x:c r="H24" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I24" s="48"/>
     </x:row>
@@ -10991,19 +11445,19 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="B25" s="45" t="s">
-        <x:v>133</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="C25" s="46"/>
       <x:c r="D25" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E25" s="47" t="s">
-        <x:v>107</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F25" s="47" t="s"/>
       <x:c r="G25" s="47"/>
       <x:c r="H25" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I25" s="48"/>
     </x:row>
@@ -11012,19 +11466,19 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="B26" s="45" t="s">
-        <x:v>103</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C26" s="46"/>
       <x:c r="D26" s="47" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E26" s="47" t="s">
-        <x:v>104</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F26" s="47" t="s"/>
       <x:c r="G26" s="47"/>
       <x:c r="H26" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I26" s="48"/>
     </x:row>
@@ -11033,19 +11487,19 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="B27" s="45" t="s">
-        <x:v>134</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="C27" s="46"/>
       <x:c r="D27" s="47" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E27" s="47"/>
       <x:c r="F27" s="47" t="s"/>
       <x:c r="G27" s="47" t="s">
-        <x:v>99</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H27" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I27" s="48"/>
     </x:row>
@@ -11298,7 +11752,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>135</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -11321,7 +11775,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>136</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -11329,7 +11783,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>137</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -11340,7 +11794,7 @@
     </x:row>
     <x:row r="5" spans="1:9">
       <x:c r="A5" s="38" t="s">
-        <x:v>73</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B5" s="39" t="s">
         <x:v>14</x:v>
@@ -11355,7 +11809,7 @@
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" s="38" t="s">
-        <x:v>74</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B6" s="39"/>
       <x:c r="C6" s="40"/>
@@ -11368,31 +11822,31 @@
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="38" t="s">
-        <x:v>75</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B7" s="42" t="s">
-        <x:v>76</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C7" s="42" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D7" s="42" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E7" s="42" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F7" s="42" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="G7" s="42" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="H7" s="42" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I7" s="43" t="s">
         <x:v>77</x:v>
-      </x:c>
-      <x:c r="D7" s="42" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E7" s="42" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="F7" s="42" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G7" s="42" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="H7" s="42" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I7" s="43" t="s">
-        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9" ht="16.2" customHeight="1">
@@ -11400,26 +11854,26 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>87</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
-        <x:v>138</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D8" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E8" s="47" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="F8" s="47" t="s">
-        <x:v>85</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G8" s="47"/>
       <x:c r="H8" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
-        <x:v>138</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
@@ -11427,24 +11881,24 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B9" s="45" t="s">
-        <x:v>139</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
-        <x:v>140</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D9" s="47" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E9" s="47" t="s">
-        <x:v>92</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F9" s="47" t="s"/>
       <x:c r="G9" s="47"/>
       <x:c r="H9" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I9" s="48" t="s">
-        <x:v>140</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" ht="16.2" customHeight="1">
@@ -11452,24 +11906,24 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="45" t="s">
-        <x:v>141</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
-        <x:v>142</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D10" s="47" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E10" s="47" t="s">
-        <x:v>104</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F10" s="47" t="s"/>
       <x:c r="G10" s="47"/>
       <x:c r="H10" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I10" s="48" t="s">
-        <x:v>142</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9" ht="16.2" customHeight="1">
@@ -11477,24 +11931,24 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B11" s="45" t="s">
-        <x:v>143</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C11" s="46" t="s">
-        <x:v>144</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D11" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E11" s="47" t="s">
-        <x:v>145</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F11" s="47" t="s"/>
       <x:c r="G11" s="47"/>
       <x:c r="H11" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I11" s="48" t="s">
-        <x:v>144</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9" ht="16.2" customHeight="1">
@@ -11502,22 +11956,22 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B12" s="45" t="s">
-        <x:v>146</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="C12" s="46" t="s">
-        <x:v>147</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D12" s="47" t="s">
-        <x:v>94</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E12" s="47"/>
       <x:c r="F12" s="47" t="s"/>
       <x:c r="G12" s="47"/>
       <x:c r="H12" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I12" s="48" t="s">
-        <x:v>147</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9" ht="16.2" customHeight="1">
@@ -11525,22 +11979,22 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B13" s="45" t="s">
-        <x:v>148</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="C13" s="46" t="s">
-        <x:v>149</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D13" s="47" t="s">
-        <x:v>94</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E13" s="47"/>
       <x:c r="F13" s="47" t="s"/>
       <x:c r="G13" s="47"/>
       <x:c r="H13" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I13" s="48" t="s">
-        <x:v>149</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9" ht="16.2" customHeight="1">
@@ -11548,21 +12002,21 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B14" s="45" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C14" s="46"/>
       <x:c r="D14" s="47" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E14" s="47" t="s">
         <x:v>64</x:v>
       </x:c>
       <x:c r="F14" s="47" t="s"/>
       <x:c r="G14" s="47" t="s">
-        <x:v>150</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="H14" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I14" s="48"/>
     </x:row>
@@ -11571,19 +12025,19 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B15" s="45" t="s">
-        <x:v>151</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C15" s="46"/>
       <x:c r="D15" s="47" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E15" s="47"/>
       <x:c r="F15" s="47" t="s"/>
       <x:c r="G15" s="47" t="s">
-        <x:v>99</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H15" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I15" s="48"/>
     </x:row>
@@ -11592,19 +12046,19 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B16" s="45" t="s">
-        <x:v>152</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="C16" s="46"/>
       <x:c r="D16" s="47" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E16" s="47"/>
       <x:c r="F16" s="47" t="s"/>
       <x:c r="G16" s="47" t="s">
-        <x:v>99</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H16" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I16" s="48"/>
     </x:row>
@@ -11613,21 +12067,21 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="B17" s="45" t="s">
-        <x:v>153</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="C17" s="46"/>
       <x:c r="D17" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E17" s="47" t="s">
-        <x:v>92</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F17" s="47" t="s"/>
       <x:c r="G17" s="47" t="s">
-        <x:v>154</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="H17" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I17" s="48"/>
     </x:row>
@@ -11770,7 +12224,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>155</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -11793,7 +12247,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>156</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -11801,7 +12255,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>157</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -11812,7 +12266,7 @@
     </x:row>
     <x:row r="5" spans="1:9">
       <x:c r="A5" s="38" t="s">
-        <x:v>73</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B5" s="39" t="s">
         <x:v>17</x:v>
@@ -11827,7 +12281,7 @@
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" s="38" t="s">
-        <x:v>74</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B6" s="39"/>
       <x:c r="C6" s="40"/>
@@ -11840,31 +12294,31 @@
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="38" t="s">
-        <x:v>75</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B7" s="42" t="s">
-        <x:v>76</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C7" s="42" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D7" s="42" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E7" s="42" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F7" s="42" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="G7" s="42" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="H7" s="42" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I7" s="43" t="s">
         <x:v>77</x:v>
-      </x:c>
-      <x:c r="D7" s="42" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E7" s="42" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="F7" s="42" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G7" s="42" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="H7" s="42" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I7" s="43" t="s">
-        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9" ht="16.2" customHeight="1">
@@ -11872,26 +12326,26 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>158</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
-        <x:v>159</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D8" s="47" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E8" s="47" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="F8" s="47" t="s">
         <x:v>88</x:v>
-      </x:c>
-      <x:c r="E8" s="47" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="F8" s="47" t="s">
-        <x:v>85</x:v>
       </x:c>
       <x:c r="G8" s="47"/>
       <x:c r="H8" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
-        <x:v>159</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
@@ -11899,22 +12353,22 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B9" s="45" t="s">
-        <x:v>160</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
-        <x:v>161</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D9" s="47" t="s">
-        <x:v>162</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="E9" s="47"/>
       <x:c r="F9" s="47" t="s"/>
       <x:c r="G9" s="47"/>
       <x:c r="H9" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I9" s="48" t="s">
-        <x:v>161</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" ht="16.2" customHeight="1">
@@ -11922,24 +12376,24 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="45" t="s">
-        <x:v>163</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
-        <x:v>164</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D10" s="47" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E10" s="47" t="s">
-        <x:v>165</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="F10" s="47" t="s"/>
       <x:c r="G10" s="47"/>
       <x:c r="H10" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I10" s="48" t="s">
-        <x:v>164</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -12004,7 +12458,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>166</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -12027,7 +12481,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>167</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -12035,7 +12489,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>168</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -12046,7 +12500,7 @@
     </x:row>
     <x:row r="5" spans="1:9">
       <x:c r="A5" s="38" t="s">
-        <x:v>73</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B5" s="39" t="s">
         <x:v>20</x:v>
@@ -12061,7 +12515,7 @@
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" s="38" t="s">
-        <x:v>74</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B6" s="39"/>
       <x:c r="C6" s="40"/>
@@ -12074,31 +12528,31 @@
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="38" t="s">
-        <x:v>75</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B7" s="42" t="s">
-        <x:v>76</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C7" s="42" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D7" s="42" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E7" s="42" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F7" s="42" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="G7" s="42" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="H7" s="42" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I7" s="43" t="s">
         <x:v>77</x:v>
-      </x:c>
-      <x:c r="D7" s="42" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E7" s="42" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="F7" s="42" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G7" s="42" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="H7" s="42" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I7" s="43" t="s">
-        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9" ht="16.2" customHeight="1">
@@ -12106,19 +12560,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>169</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="C8" s="46"/>
       <x:c r="D8" s="47" t="s">
-        <x:v>170</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E8" s="47"/>
       <x:c r="F8" s="47" t="s">
-        <x:v>85</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G8" s="47"/>
       <x:c r="H8" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I8" s="48"/>
     </x:row>
@@ -12127,13 +12581,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B9" s="45" t="s">
-        <x:v>89</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
-        <x:v>171</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D9" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E9" s="47" t="s">
         <x:v>36</x:v>
@@ -12141,10 +12595,10 @@
       <x:c r="F9" s="47" t="s"/>
       <x:c r="G9" s="47"/>
       <x:c r="H9" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I9" s="48" t="s">
-        <x:v>171</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" ht="16.2" customHeight="1">
@@ -12152,24 +12606,24 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="45" t="s">
-        <x:v>90</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
-        <x:v>172</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D10" s="47" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E10" s="47" t="s">
-        <x:v>92</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F10" s="47" t="s"/>
       <x:c r="G10" s="47"/>
       <x:c r="H10" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I10" s="48" t="s">
-        <x:v>172</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9" ht="16.2" customHeight="1">
@@ -12177,22 +12631,22 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B11" s="45" t="s">
-        <x:v>173</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C11" s="46" t="s">
-        <x:v>174</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="D11" s="47" t="s">
-        <x:v>94</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E11" s="47"/>
       <x:c r="F11" s="47" t="s"/>
       <x:c r="G11" s="47"/>
       <x:c r="H11" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I11" s="48" t="s">
-        <x:v>174</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9" ht="16.2" customHeight="1">
@@ -12200,22 +12654,22 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B12" s="45" t="s">
-        <x:v>97</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C12" s="46" t="s">
-        <x:v>175</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D12" s="47" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E12" s="47"/>
       <x:c r="F12" s="47" t="s"/>
       <x:c r="G12" s="47"/>
       <x:c r="H12" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I12" s="48" t="s">
-        <x:v>175</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -12302,7 +12756,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>176</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -12325,7 +12779,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>177</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -12333,7 +12787,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>178</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -12344,7 +12798,7 @@
     </x:row>
     <x:row r="5" spans="1:9">
       <x:c r="A5" s="38" t="s">
-        <x:v>73</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B5" s="39" t="s">
         <x:v>23</x:v>
@@ -12359,7 +12813,7 @@
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" s="38" t="s">
-        <x:v>74</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B6" s="39"/>
       <x:c r="C6" s="40"/>
@@ -12372,31 +12826,31 @@
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="38" t="s">
-        <x:v>75</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B7" s="42" t="s">
-        <x:v>76</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C7" s="42" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D7" s="42" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E7" s="42" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F7" s="42" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="G7" s="42" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="H7" s="42" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I7" s="43" t="s">
         <x:v>77</x:v>
-      </x:c>
-      <x:c r="D7" s="42" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E7" s="42" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="F7" s="42" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G7" s="42" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="H7" s="42" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I7" s="43" t="s">
-        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9" ht="16.2" customHeight="1">
@@ -12404,26 +12858,26 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>179</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
-        <x:v>180</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D8" s="47" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E8" s="47" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F8" s="47" t="s">
-        <x:v>85</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G8" s="47"/>
       <x:c r="H8" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
-        <x:v>181</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
@@ -12431,13 +12885,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B9" s="45" t="s">
-        <x:v>89</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
-        <x:v>182</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D9" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E9" s="47" t="s">
         <x:v>36</x:v>
@@ -12445,10 +12899,10 @@
       <x:c r="F9" s="47" t="s"/>
       <x:c r="G9" s="47"/>
       <x:c r="H9" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I9" s="48" t="s">
-        <x:v>182</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" ht="16.2" customHeight="1">
@@ -12456,13 +12910,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="45" t="s">
-        <x:v>183</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
-        <x:v>184</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D10" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E10" s="47" t="s">
         <x:v>36</x:v>
@@ -12470,10 +12924,10 @@
       <x:c r="F10" s="47" t="s"/>
       <x:c r="G10" s="47"/>
       <x:c r="H10" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I10" s="48" t="s">
-        <x:v>184</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9" ht="16.2" customHeight="1">
@@ -12481,22 +12935,22 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B11" s="45" t="s">
-        <x:v>185</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="C11" s="46" t="s">
-        <x:v>186</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="D11" s="47" t="s">
-        <x:v>170</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E11" s="47"/>
       <x:c r="F11" s="47" t="s"/>
       <x:c r="G11" s="47"/>
       <x:c r="H11" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I11" s="48" t="s">
-        <x:v>186</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9" ht="16.2" customHeight="1">
@@ -12504,22 +12958,22 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B12" s="45" t="s">
-        <x:v>187</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="C12" s="46" t="s">
-        <x:v>188</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="D12" s="47" t="s">
-        <x:v>94</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E12" s="47"/>
       <x:c r="F12" s="47" t="s"/>
       <x:c r="G12" s="47"/>
       <x:c r="H12" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I12" s="48" t="s">
-        <x:v>188</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9" ht="16.2" customHeight="1">
@@ -12527,13 +12981,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B13" s="45" t="s">
-        <x:v>189</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="C13" s="46" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="D13" s="47" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E13" s="47" t="s">
         <x:v>10</x:v>
@@ -12541,10 +12995,10 @@
       <x:c r="F13" s="47" t="s"/>
       <x:c r="G13" s="47"/>
       <x:c r="H13" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I13" s="48" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9" ht="16.2" customHeight="1">
@@ -12552,24 +13006,24 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B14" s="45" t="s">
-        <x:v>192</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="C14" s="46" t="s">
-        <x:v>193</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="D14" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E14" s="47" t="s">
-        <x:v>107</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F14" s="47" t="s"/>
       <x:c r="G14" s="47"/>
       <x:c r="H14" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I14" s="48" t="s">
-        <x:v>193</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9" ht="16.2" customHeight="1">
@@ -12577,22 +13031,22 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B15" s="45" t="s">
-        <x:v>194</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="C15" s="46" t="s">
-        <x:v>195</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="D15" s="47" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E15" s="47"/>
       <x:c r="F15" s="47" t="s"/>
       <x:c r="G15" s="47"/>
       <x:c r="H15" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I15" s="48" t="s">
-        <x:v>196</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9" ht="16.2" customHeight="1">
@@ -12600,13 +13054,13 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B16" s="45" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C16" s="46" t="s">
-        <x:v>197</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="D16" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E16" s="47" t="s">
         <x:v>64</x:v>
@@ -12614,10 +13068,10 @@
       <x:c r="F16" s="47" t="s"/>
       <x:c r="G16" s="47"/>
       <x:c r="H16" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I16" s="48" t="s">
-        <x:v>198</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9" ht="16.2" customHeight="1">
@@ -12625,19 +13079,19 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="B17" s="45" t="s">
-        <x:v>199</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="C17" s="46"/>
       <x:c r="D17" s="47" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E17" s="47" t="s">
-        <x:v>104</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F17" s="47" t="s"/>
       <x:c r="G17" s="47"/>
       <x:c r="H17" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I17" s="48"/>
     </x:row>
@@ -12646,13 +13100,13 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="B18" s="45" t="s">
-        <x:v>200</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="C18" s="46" t="s">
-        <x:v>201</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D18" s="47" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E18" s="47" t="s">
         <x:v>10</x:v>
@@ -12660,10 +13114,10 @@
       <x:c r="F18" s="47" t="s"/>
       <x:c r="G18" s="47"/>
       <x:c r="H18" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I18" s="48" t="s">
-        <x:v>202</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9" ht="16.2" customHeight="1">
@@ -12671,24 +13125,24 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="B19" s="45" t="s">
-        <x:v>203</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="C19" s="46" t="s">
-        <x:v>204</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="D19" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E19" s="47" t="s">
-        <x:v>107</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F19" s="47" t="s"/>
       <x:c r="G19" s="47"/>
       <x:c r="H19" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I19" s="48" t="s">
-        <x:v>205</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9" ht="16.2" customHeight="1">
@@ -12696,22 +13150,22 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="B20" s="45" t="s">
-        <x:v>206</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="C20" s="46" t="s">
-        <x:v>207</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="D20" s="47" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E20" s="47"/>
       <x:c r="F20" s="47" t="s"/>
       <x:c r="G20" s="47"/>
       <x:c r="H20" s="47" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I20" s="48" t="s">
-        <x:v>208</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -12886,7 +13340,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>209</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -12909,7 +13363,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>210</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -12917,7 +13371,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>211</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -12928,7 +13382,7 @@
     </x:row>
     <x:row r="5" spans="1:9">
       <x:c r="A5" s="38" t="s">
-        <x:v>73</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B5" s="39" t="s">
         <x:v>26</x:v>
@@ -12943,7 +13397,7 @@
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" s="38" t="s">
-        <x:v>74</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B6" s="39"/>
       <x:c r="C6" s="40"/>
@@ -12956,31 +13410,31 @@
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="38" t="s">
-        <x:v>75</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B7" s="42" t="s">
-        <x:v>76</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C7" s="42" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D7" s="42" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E7" s="42" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F7" s="42" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="G7" s="42" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="H7" s="42" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I7" s="43" t="s">
         <x:v>77</x:v>
-      </x:c>
-      <x:c r="D7" s="42" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E7" s="42" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="F7" s="42" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G7" s="42" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="H7" s="42" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I7" s="43" t="s">
-        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9" ht="16.2" customHeight="1">
@@ -12988,26 +13442,26 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>183</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
-        <x:v>212</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="D8" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E8" s="47" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="F8" s="47" t="s">
-        <x:v>85</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G8" s="47"/>
       <x:c r="H8" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
-        <x:v>212</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
@@ -13015,24 +13469,24 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B9" s="45" t="s">
-        <x:v>139</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
-        <x:v>213</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="D9" s="47" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E9" s="47" t="s">
-        <x:v>92</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F9" s="47" t="s"/>
       <x:c r="G9" s="47"/>
       <x:c r="H9" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I9" s="48" t="s">
-        <x:v>213</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" ht="16.2" customHeight="1">
@@ -13040,24 +13494,24 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="45" t="s">
-        <x:v>141</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
-        <x:v>214</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="D10" s="47" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E10" s="47" t="s">
-        <x:v>104</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F10" s="47" t="s"/>
       <x:c r="G10" s="47"/>
       <x:c r="H10" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I10" s="48" t="s">
-        <x:v>214</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9" ht="16.2" customHeight="1">
@@ -13065,24 +13519,24 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B11" s="45" t="s">
-        <x:v>143</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C11" s="46" t="s">
-        <x:v>215</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="D11" s="47" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E11" s="47" t="s">
-        <x:v>145</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F11" s="47" t="s"/>
       <x:c r="G11" s="47"/>
       <x:c r="H11" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I11" s="48" t="s">
-        <x:v>215</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9" ht="16.2" customHeight="1">
@@ -13090,22 +13544,22 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B12" s="45" t="s">
-        <x:v>216</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="C12" s="46" t="s">
-        <x:v>217</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="D12" s="47" t="s">
-        <x:v>94</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E12" s="47"/>
       <x:c r="F12" s="47" t="s"/>
       <x:c r="G12" s="47"/>
       <x:c r="H12" s="47" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I12" s="48" t="s">
-        <x:v>217</x:v>
+        <x:v>220</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">

--- a/Vista.DB/Schema/AuctionDB_Schema.xlsx
+++ b/Vista.DB/Schema/AuctionDB_Schema.xlsx
@@ -45,7 +45,7 @@
     <x:definedName name="FieldList_tpl" localSheetId="3">AuctionPrize!$A$8:$I$17</x:definedName>
     <x:definedName name="FieldList_tpl" localSheetId="4">AuthSession!$A$8:$I$10</x:definedName>
     <x:definedName name="FieldList_tpl" localSheetId="5">DonationRecord!$A$8:$I$12</x:definedName>
-    <x:definedName name="FieldList_tpl" localSheetId="6">GiveOrder!$A$8:$I$20</x:definedName>
+    <x:definedName name="FieldList_tpl" localSheetId="6">GiveOrder!$A$8:$I$21</x:definedName>
     <x:definedName name="FieldList_tpl" localSheetId="7">GivePrize!$A$8:$I$12</x:definedName>
     <x:definedName name="FieldList_tpl" localSheetId="8">GiveTicket!$A$8:$I$11</x:definedName>
     <x:definedName name="FieldList_tpl" localSheetId="9">GiveWinner!$A$8:$I$9</x:definedName>
@@ -1093,6 +1093,12 @@
     <x:t>貴賓代碼</x:t>
   </x:si>
   <x:si>
+    <x:t>VipName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>貴賓名稱</x:t>
+  </x:si>
+  <x:si>
     <x:t>GiftId</x:t>
   </x:si>
   <x:si>
@@ -2576,9 +2582,6 @@
       <x:t>檔案(物件)種類</x:t>
     </x:r>
     <x:phoneticPr fontId="0" type="noConversion"/>
-  </x:si>
-  <x:si>
-    <x:t>VipName</x:t>
   </x:si>
   <x:si>
     <x:t>賓客全名</x:t>
@@ -3563,7 +3566,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>221</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -3586,7 +3589,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>222</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -3594,7 +3597,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>223</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -3665,10 +3668,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>224</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
-        <x:v>225</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="D8" s="47" t="s">
         <x:v>104</x:v>
@@ -3684,7 +3687,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
-        <x:v>225</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
@@ -3695,7 +3698,7 @@
         <x:v>182</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
-        <x:v>226</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="D9" s="47" t="s">
         <x:v>104</x:v>
@@ -3709,7 +3712,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I9" s="48" t="s">
-        <x:v>226</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" ht="16.2" customHeight="1">
@@ -3720,7 +3723,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
-        <x:v>227</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="D10" s="47" t="s">
         <x:v>91</x:v>
@@ -3734,7 +3737,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I10" s="48" t="s">
-        <x:v>227</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9" ht="16.2" customHeight="1">
@@ -3742,10 +3745,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B11" s="45" t="s">
-        <x:v>228</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="C11" s="46" t="s">
-        <x:v>229</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="D11" s="47" t="s">
         <x:v>94</x:v>
@@ -3759,7 +3762,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I11" s="48" t="s">
-        <x:v>230</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -3835,7 +3838,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>231</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -3858,7 +3861,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>232</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -3866,7 +3869,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>233</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -3937,7 +3940,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>186</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="C8" s="46"/>
       <x:c r="D8" s="47" t="s">
@@ -3958,7 +3961,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B9" s="45" t="s">
-        <x:v>224</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="C9" s="46"/>
       <x:c r="D9" s="47" t="s">
@@ -4025,7 +4028,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>234</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -4048,7 +4051,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>235</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -4056,7 +4059,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>236</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -4127,10 +4130,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>237</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
-        <x:v>238</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="D8" s="47" t="s">
         <x:v>91</x:v>
@@ -4146,7 +4149,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
-        <x:v>238</x:v>
+        <x:v>240</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
@@ -4154,7 +4157,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B9" s="45" t="s">
-        <x:v>239</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
         <x:v>76</x:v>
@@ -4179,10 +4182,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="45" t="s">
-        <x:v>240</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
-        <x:v>241</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="D10" s="47" t="s">
         <x:v>94</x:v>
@@ -4196,7 +4199,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="I10" s="48" t="s">
-        <x:v>241</x:v>
+        <x:v>243</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9" ht="16.2" customHeight="1">
@@ -4204,10 +4207,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B11" s="45" t="s">
-        <x:v>242</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="C11" s="46" t="s">
-        <x:v>243</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="D11" s="47" t="s">
         <x:v>97</x:v>
@@ -4219,7 +4222,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="I11" s="48" t="s">
-        <x:v>243</x:v>
+        <x:v>245</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -4295,7 +4298,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>244</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -4318,7 +4321,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>245</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -4326,7 +4329,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>246</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -4397,7 +4400,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>247</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
         <x:v>41</x:v>
@@ -4425,7 +4428,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
-        <x:v>248</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="D9" s="47" t="s">
         <x:v>91</x:v>
@@ -4441,7 +4444,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I9" s="48" t="s">
-        <x:v>248</x:v>
+        <x:v>250</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" ht="16.2" customHeight="1">
@@ -4452,7 +4455,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
-        <x:v>249</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="D10" s="47" t="s">
         <x:v>94</x:v>
@@ -4466,7 +4469,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I10" s="48" t="s">
-        <x:v>249</x:v>
+        <x:v>251</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9" ht="16.2" customHeight="1">
@@ -4500,7 +4503,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="C12" s="46" t="s">
-        <x:v>250</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="D12" s="47" t="s">
         <x:v>101</x:v>
@@ -4512,7 +4515,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I12" s="48" t="s">
-        <x:v>250</x:v>
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9" ht="16.2" customHeight="1">
@@ -4520,10 +4523,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B13" s="45" t="s">
-        <x:v>251</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="C13" s="46" t="s">
-        <x:v>252</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="D13" s="47" t="s">
         <x:v>91</x:v>
@@ -4537,7 +4540,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I13" s="48" t="s">
-        <x:v>252</x:v>
+        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9" ht="16.2" customHeight="1">
@@ -4545,10 +4548,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B14" s="45" t="s">
-        <x:v>253</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="C14" s="46" t="s">
-        <x:v>254</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="D14" s="47" t="s">
         <x:v>91</x:v>
@@ -4562,7 +4565,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="I14" s="48" t="s">
-        <x:v>254</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9" ht="16.2" customHeight="1">
@@ -4573,7 +4576,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="C15" s="46" t="s">
-        <x:v>255</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="D15" s="47" t="s">
         <x:v>91</x:v>
@@ -4589,7 +4592,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I15" s="48" t="s">
-        <x:v>256</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -4709,7 +4712,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>257</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -4732,7 +4735,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>258</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -4740,7 +4743,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>259</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -4811,10 +4814,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>247</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
-        <x:v>260</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="D8" s="47" t="s">
         <x:v>173</x:v>
@@ -4828,7 +4831,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
-        <x:v>261</x:v>
+        <x:v>263</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
@@ -4839,7 +4842,7 @@
         <x:v>176</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
-        <x:v>262</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="D9" s="47" t="s">
         <x:v>97</x:v>
@@ -4851,7 +4854,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I9" s="48" t="s">
-        <x:v>262</x:v>
+        <x:v>264</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" ht="16.2" customHeight="1">
@@ -4859,10 +4862,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="45" t="s">
-        <x:v>263</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
-        <x:v>264</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="D10" s="47" t="s">
         <x:v>104</x:v>
@@ -4878,7 +4881,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I10" s="48" t="s">
-        <x:v>265</x:v>
+        <x:v>267</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -4943,7 +4946,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>266</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -4966,7 +4969,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>267</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -4974,7 +4977,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>268</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -5045,7 +5048,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>269</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
         <x:v>183</x:v>
@@ -5064,7 +5067,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
-        <x:v>270</x:v>
+        <x:v>272</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
@@ -5072,10 +5075,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B9" s="45" t="s">
-        <x:v>271</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
-        <x:v>272</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="D9" s="47" t="s">
         <x:v>94</x:v>
@@ -5089,7 +5092,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I9" s="48" t="s">
-        <x:v>272</x:v>
+        <x:v>274</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" ht="16.2" customHeight="1">
@@ -5097,10 +5100,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="45" t="s">
-        <x:v>273</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
-        <x:v>274</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="D10" s="47" t="s">
         <x:v>91</x:v>
@@ -5114,7 +5117,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I10" s="48" t="s">
-        <x:v>274</x:v>
+        <x:v>276</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9" ht="16.2" customHeight="1">
@@ -5122,10 +5125,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B11" s="45" t="s">
-        <x:v>275</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="C11" s="46" t="s">
-        <x:v>276</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="D11" s="47" t="s">
         <x:v>91</x:v>
@@ -5139,7 +5142,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I11" s="48" t="s">
-        <x:v>276</x:v>
+        <x:v>278</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9" ht="16.2" customHeight="1">
@@ -5147,10 +5150,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B12" s="45" t="s">
-        <x:v>188</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="C12" s="46" t="s">
-        <x:v>189</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="D12" s="47" t="s">
         <x:v>173</x:v>
@@ -5162,7 +5165,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I12" s="48" t="s">
-        <x:v>189</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9" ht="16.2" customHeight="1">
@@ -5170,10 +5173,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B13" s="45" t="s">
-        <x:v>190</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="C13" s="46" t="s">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="D13" s="47" t="s">
         <x:v>97</x:v>
@@ -5185,7 +5188,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I13" s="48" t="s">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9" ht="16.2" customHeight="1">
@@ -5193,10 +5196,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B14" s="45" t="s">
-        <x:v>192</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="C14" s="46" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="D14" s="47" t="s">
         <x:v>104</x:v>
@@ -5210,7 +5213,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I14" s="48" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9" ht="16.2" customHeight="1">
@@ -5218,10 +5221,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B15" s="45" t="s">
-        <x:v>195</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="C15" s="46" t="s">
-        <x:v>196</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="D15" s="47" t="s">
         <x:v>91</x:v>
@@ -5235,7 +5238,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I15" s="48" t="s">
-        <x:v>196</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9" ht="16.2" customHeight="1">
@@ -5243,10 +5246,10 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B16" s="45" t="s">
-        <x:v>197</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="C16" s="46" t="s">
-        <x:v>198</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="D16" s="47" t="s">
         <x:v>101</x:v>
@@ -5258,7 +5261,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="I16" s="48" t="s">
-        <x:v>199</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9" ht="16.2" customHeight="1">
@@ -5269,7 +5272,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="C17" s="46" t="s">
-        <x:v>200</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="D17" s="47" t="s">
         <x:v>91</x:v>
@@ -5283,7 +5286,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I17" s="48" t="s">
-        <x:v>201</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9" ht="16.2" customHeight="1">
@@ -5291,7 +5294,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="B18" s="45" t="s">
-        <x:v>202</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="C18" s="46"/>
       <x:c r="D18" s="47" t="s">
@@ -5312,10 +5315,10 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="B19" s="45" t="s">
-        <x:v>203</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="C19" s="46" t="s">
-        <x:v>204</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="D19" s="47" t="s">
         <x:v>104</x:v>
@@ -5329,7 +5332,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="I19" s="48" t="s">
-        <x:v>205</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9" ht="16.2" customHeight="1">
@@ -5337,10 +5340,10 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="B20" s="45" t="s">
-        <x:v>206</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="C20" s="46" t="s">
-        <x:v>207</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="D20" s="47" t="s">
         <x:v>91</x:v>
@@ -5354,7 +5357,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="I20" s="48" t="s">
-        <x:v>208</x:v>
+        <x:v>210</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9" ht="16.2" customHeight="1">
@@ -5362,10 +5365,10 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="B21" s="45" t="s">
-        <x:v>209</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="C21" s="46" t="s">
-        <x:v>210</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="D21" s="47" t="s">
         <x:v>101</x:v>
@@ -5377,7 +5380,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="I21" s="48" t="s">
-        <x:v>211</x:v>
+        <x:v>213</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -5563,7 +5566,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>277</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -5586,7 +5589,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>278</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -5594,7 +5597,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>279</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -5665,10 +5668,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>280</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
-        <x:v>281</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="D8" s="47" t="s">
         <x:v>91</x:v>
@@ -5684,7 +5687,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
-        <x:v>281</x:v>
+        <x:v>283</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
@@ -5695,7 +5698,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
-        <x:v>282</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="D9" s="47" t="s">
         <x:v>94</x:v>
@@ -5709,7 +5712,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I9" s="48" t="s">
-        <x:v>282</x:v>
+        <x:v>284</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" ht="16.2" customHeight="1">
@@ -5720,7 +5723,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
-        <x:v>283</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="D10" s="47" t="s">
         <x:v>94</x:v>
@@ -5734,7 +5737,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I10" s="48" t="s">
-        <x:v>283</x:v>
+        <x:v>285</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9" ht="16.2" customHeight="1">
@@ -5745,7 +5748,7 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="C11" s="46" t="s">
-        <x:v>284</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="D11" s="47" t="s">
         <x:v>91</x:v>
@@ -5759,7 +5762,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I11" s="48" t="s">
-        <x:v>284</x:v>
+        <x:v>286</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9" ht="16.2" customHeight="1">
@@ -5767,10 +5770,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B12" s="45" t="s">
-        <x:v>219</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="C12" s="46" t="s">
-        <x:v>285</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="D12" s="47" t="s">
         <x:v>97</x:v>
@@ -5782,7 +5785,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I12" s="48" t="s">
-        <x:v>285</x:v>
+        <x:v>287</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9" ht="16.2" customHeight="1">
@@ -5790,10 +5793,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B13" s="45" t="s">
-        <x:v>286</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="C13" s="46" t="s">
-        <x:v>287</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="D13" s="47" t="s">
         <x:v>91</x:v>
@@ -5807,7 +5810,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I13" s="48" t="s">
-        <x:v>288</x:v>
+        <x:v>290</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -5905,7 +5908,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>289</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -5928,7 +5931,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>290</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -5936,7 +5939,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>291</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -6007,10 +6010,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>292</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
-        <x:v>293</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="D8" s="47" t="s">
         <x:v>104</x:v>
@@ -6026,7 +6029,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
-        <x:v>294</x:v>
+        <x:v>296</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
@@ -6034,7 +6037,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B9" s="45" t="s">
-        <x:v>295</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
         <x:v>183</x:v>
@@ -6051,7 +6054,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I9" s="48" t="s">
-        <x:v>270</x:v>
+        <x:v>272</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" ht="16.2" customHeight="1">
@@ -6059,10 +6062,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="45" t="s">
-        <x:v>271</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
-        <x:v>272</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="D10" s="47" t="s">
         <x:v>94</x:v>
@@ -6076,7 +6079,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I10" s="48" t="s">
-        <x:v>272</x:v>
+        <x:v>274</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9" ht="16.2" customHeight="1">
@@ -6084,10 +6087,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B11" s="45" t="s">
-        <x:v>273</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="C11" s="46" t="s">
-        <x:v>274</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="D11" s="47" t="s">
         <x:v>91</x:v>
@@ -6101,7 +6104,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I11" s="48" t="s">
-        <x:v>274</x:v>
+        <x:v>276</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9" ht="16.2" customHeight="1">
@@ -6109,10 +6112,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B12" s="45" t="s">
-        <x:v>275</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="C12" s="46" t="s">
-        <x:v>276</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="D12" s="47" t="s">
         <x:v>91</x:v>
@@ -6126,7 +6129,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I12" s="48" t="s">
-        <x:v>276</x:v>
+        <x:v>278</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9" ht="16.2" customHeight="1">
@@ -6134,10 +6137,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B13" s="45" t="s">
-        <x:v>296</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="C13" s="46" t="s">
-        <x:v>297</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="D13" s="47" t="s">
         <x:v>173</x:v>
@@ -6151,7 +6154,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I13" s="48" t="s">
-        <x:v>297</x:v>
+        <x:v>299</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9" ht="16.2" customHeight="1">
@@ -6159,10 +6162,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B14" s="45" t="s">
-        <x:v>298</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="C14" s="46" t="s">
-        <x:v>299</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="D14" s="47" t="s">
         <x:v>101</x:v>
@@ -6174,7 +6177,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="I14" s="48" t="s">
-        <x:v>300</x:v>
+        <x:v>302</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -6283,7 +6286,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>301</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -6306,7 +6309,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>302</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -6314,7 +6317,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>303</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -6385,10 +6388,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>280</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
-        <x:v>281</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="D8" s="47" t="s">
         <x:v>91</x:v>
@@ -6402,7 +6405,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
-        <x:v>281</x:v>
+        <x:v>283</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
@@ -6410,10 +6413,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B9" s="45" t="s">
-        <x:v>304</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
-        <x:v>305</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="D9" s="47" t="s">
         <x:v>104</x:v>
@@ -6427,7 +6430,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I9" s="48" t="s">
-        <x:v>305</x:v>
+        <x:v>307</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -6481,7 +6484,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>306</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -6504,7 +6507,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>307</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -6512,7 +6515,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>308</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -6684,7 +6687,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B13" s="45" t="s">
-        <x:v>309</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="C13" s="46"/>
       <x:c r="D13" s="47" t="s">
@@ -6714,7 +6717,7 @@
       </x:c>
       <x:c r="F14" s="47" t="s"/>
       <x:c r="G14" s="47" t="s">
-        <x:v>310</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="H14" s="47" t="s">
         <x:v>89</x:v>
@@ -6770,7 +6773,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="B17" s="45" t="s">
-        <x:v>311</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="C17" s="46"/>
       <x:c r="D17" s="47" t="s">
@@ -6793,7 +6796,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="B18" s="45" t="s">
-        <x:v>312</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="C18" s="46"/>
       <x:c r="D18" s="47" t="s">
@@ -6833,7 +6836,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="B20" s="45" t="s">
-        <x:v>313</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="C20" s="46"/>
       <x:c r="D20" s="47" t="s">
@@ -6854,14 +6857,14 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="B21" s="45" t="s">
-        <x:v>314</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="C21" s="46"/>
       <x:c r="D21" s="47" t="s">
         <x:v>91</x:v>
       </x:c>
       <x:c r="E21" s="47" t="s">
-        <x:v>315</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="F21" s="47" t="s"/>
       <x:c r="G21" s="47"/>
@@ -7620,7 +7623,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>316</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -7643,7 +7646,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>317</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -7651,7 +7654,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>318</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -7863,7 +7866,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B15" s="45" t="s">
-        <x:v>319</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="C15" s="46"/>
       <x:c r="D15" s="47" t="s">
@@ -7884,7 +7887,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B16" s="45" t="s">
-        <x:v>320</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="C16" s="46"/>
       <x:c r="D16" s="47" t="s">
@@ -7947,7 +7950,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="B19" s="45" t="s">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="C19" s="46"/>
       <x:c r="D19" s="47" t="s">
@@ -8446,7 +8449,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -8469,7 +8472,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -8477,7 +8480,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -8673,10 +8676,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B13" s="45" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="C13" s="46" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="D13" s="47" t="s">
         <x:v>97</x:v>
@@ -8688,7 +8691,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I13" s="48" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9" ht="16.2" customHeight="1">
@@ -8696,10 +8699,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B14" s="45" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="C14" s="46" t="s">
-        <x:v>328</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="D14" s="47" t="s">
         <x:v>104</x:v>
@@ -8713,7 +8716,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I14" s="48" t="s">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9" ht="16.2" customHeight="1">
@@ -8721,10 +8724,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B15" s="45" t="s">
+        <x:v>332</x:v>
+      </x:c>
+      <x:c r="C15" s="46" t="s">
         <x:v>330</x:v>
-      </x:c>
-      <x:c r="C15" s="46" t="s">
-        <x:v>328</x:v>
       </x:c>
       <x:c r="D15" s="47" t="s">
         <x:v>104</x:v>
@@ -8740,7 +8743,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I15" s="48" t="s">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9" ht="16.2" customHeight="1">
@@ -8771,7 +8774,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="B17" s="45" t="s">
-        <x:v>331</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="C17" s="46"/>
       <x:c r="D17" s="47" t="s">
@@ -9024,7 +9027,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>332</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -9047,7 +9050,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>333</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -9055,7 +9058,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>334</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -9129,7 +9132,7 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
-        <x:v>335</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="D8" s="47" t="s">
         <x:v>91</x:v>
@@ -9145,7 +9148,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
-        <x:v>335</x:v>
+        <x:v>337</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
@@ -9153,10 +9156,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B9" s="45" t="s">
-        <x:v>336</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
-        <x:v>337</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="D9" s="47" t="s">
         <x:v>91</x:v>
@@ -9170,7 +9173,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I9" s="48" t="s">
-        <x:v>337</x:v>
+        <x:v>339</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" ht="16.2" customHeight="1">
@@ -9178,10 +9181,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="45" t="s">
-        <x:v>338</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
-        <x:v>339</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="D10" s="47" t="s">
         <x:v>94</x:v>
@@ -9195,7 +9198,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I10" s="48" t="s">
-        <x:v>339</x:v>
+        <x:v>341</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9" ht="16.2" customHeight="1">
@@ -9203,10 +9206,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B11" s="45" t="s">
-        <x:v>340</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="C11" s="46" t="s">
-        <x:v>341</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="D11" s="47" t="s">
         <x:v>91</x:v>
@@ -9220,7 +9223,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I11" s="48" t="s">
-        <x:v>341</x:v>
+        <x:v>343</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9" ht="16.2" customHeight="1">
@@ -9228,10 +9231,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B12" s="45" t="s">
-        <x:v>342</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="C12" s="46" t="s">
-        <x:v>343</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="D12" s="47" t="s">
         <x:v>94</x:v>
@@ -9245,7 +9248,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I12" s="48" t="s">
-        <x:v>344</x:v>
+        <x:v>346</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9" ht="16.2" customHeight="1">
@@ -9253,7 +9256,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B13" s="45" t="s">
-        <x:v>202</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="C13" s="46" t="s">
         <x:v>77</x:v>
@@ -9280,10 +9283,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B14" s="45" t="s">
-        <x:v>345</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="C14" s="46" t="s">
-        <x:v>346</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="D14" s="47" t="s">
         <x:v>104</x:v>
@@ -9297,7 +9300,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I14" s="48" t="s">
-        <x:v>347</x:v>
+        <x:v>349</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -9406,7 +9409,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>348</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -9429,7 +9432,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>349</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -9437,7 +9440,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>350</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -9508,16 +9511,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>351</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
-        <x:v>352</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="D8" s="47" t="s">
         <x:v>91</x:v>
       </x:c>
       <x:c r="E8" s="47" t="s">
-        <x:v>353</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="F8" s="47" t="s">
         <x:v>88</x:v>
@@ -9527,7 +9530,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
-        <x:v>352</x:v>
+        <x:v>354</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
@@ -9538,7 +9541,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
-        <x:v>354</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="D9" s="47" t="s">
         <x:v>91</x:v>
@@ -9552,7 +9555,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I9" s="48" t="s">
-        <x:v>354</x:v>
+        <x:v>356</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" ht="16.2" customHeight="1">
@@ -9560,10 +9563,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="45" t="s">
-        <x:v>219</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
-        <x:v>355</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="D10" s="47" t="s">
         <x:v>94</x:v>
@@ -9577,7 +9580,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I10" s="48" t="s">
-        <x:v>355</x:v>
+        <x:v>357</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9" ht="16.2" customHeight="1">
@@ -9585,10 +9588,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B11" s="45" t="s">
-        <x:v>286</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="C11" s="46" t="s">
-        <x:v>356</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="D11" s="47" t="s">
         <x:v>91</x:v>
@@ -9602,7 +9605,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I11" s="48" t="s">
-        <x:v>357</x:v>
+        <x:v>359</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9" ht="16.2" customHeight="1">
@@ -9610,7 +9613,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B12" s="45" t="s">
-        <x:v>202</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="C12" s="46" t="s">
         <x:v>77</x:v>
@@ -9716,7 +9719,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>358</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -9739,7 +9742,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>359</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -9747,7 +9750,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>360</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -9821,7 +9824,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
-        <x:v>248</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="D8" s="47" t="s">
         <x:v>91</x:v>
@@ -9837,7 +9840,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
-        <x:v>248</x:v>
+        <x:v>250</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
@@ -9845,10 +9848,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B9" s="45" t="s">
-        <x:v>361</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
-        <x:v>362</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="D9" s="47" t="s">
         <x:v>94</x:v>
@@ -9862,7 +9865,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I9" s="48" t="s">
-        <x:v>362</x:v>
+        <x:v>363</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" ht="16.2" customHeight="1">
@@ -9870,10 +9873,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="45" t="s">
-        <x:v>363</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
-        <x:v>364</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="D10" s="47" t="s">
         <x:v>91</x:v>
@@ -9887,7 +9890,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I10" s="48" t="s">
-        <x:v>364</x:v>
+        <x:v>365</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9" ht="16.2" customHeight="1">
@@ -9895,10 +9898,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B11" s="45" t="s">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="C11" s="46" t="s">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="D11" s="47" t="s">
         <x:v>91</x:v>
@@ -9912,7 +9915,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I11" s="48" t="s">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9" ht="16.2" customHeight="1">
@@ -9920,10 +9923,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B12" s="45" t="s">
-        <x:v>367</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="C12" s="46" t="s">
-        <x:v>368</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="D12" s="47" t="s">
         <x:v>91</x:v>
@@ -9937,7 +9940,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I12" s="48" t="s">
-        <x:v>368</x:v>
+        <x:v>369</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9" ht="16.2" customHeight="1">
@@ -9945,10 +9948,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B13" s="45" t="s">
-        <x:v>369</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="C13" s="46" t="s">
-        <x:v>370</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="D13" s="47" t="s">
         <x:v>91</x:v>
@@ -9962,7 +9965,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I13" s="48" t="s">
-        <x:v>370</x:v>
+        <x:v>371</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9" ht="16.2" customHeight="1">
@@ -9970,10 +9973,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B14" s="45" t="s">
-        <x:v>371</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="C14" s="46" t="s">
-        <x:v>372</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="D14" s="47" t="s">
         <x:v>104</x:v>
@@ -9989,7 +9992,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I14" s="48" t="s">
-        <x:v>372</x:v>
+        <x:v>373</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9" ht="16.2" customHeight="1">
@@ -9997,10 +10000,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B15" s="45" t="s">
-        <x:v>373</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="C15" s="46" t="s">
-        <x:v>374</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="D15" s="47" t="s">
         <x:v>94</x:v>
@@ -10014,7 +10017,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I15" s="48" t="s">
-        <x:v>374</x:v>
+        <x:v>375</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9" ht="16.2" customHeight="1">
@@ -10022,10 +10025,10 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B16" s="45" t="s">
-        <x:v>375</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="C16" s="46" t="s">
-        <x:v>376</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="D16" s="47" t="s">
         <x:v>91</x:v>
@@ -10039,7 +10042,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I16" s="48" t="s">
-        <x:v>376</x:v>
+        <x:v>377</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -10170,7 +10173,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>377</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -10193,7 +10196,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>378</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -10201,7 +10204,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>379</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -10371,7 +10374,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B13" s="45" t="s">
-        <x:v>380</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="C13" s="46"/>
       <x:c r="D13" s="47" t="s">
@@ -12735,7 +12738,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:I31"/>
+  <x:dimension ref="A1:I33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="B6" sqref="B6 B6:I6"/>
@@ -12919,7 +12922,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E10" s="47" t="s">
-        <x:v>36</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F10" s="47" t="s"/>
       <x:c r="G10" s="47"/>
@@ -12941,9 +12944,11 @@
         <x:v>189</x:v>
       </x:c>
       <x:c r="D11" s="47" t="s">
-        <x:v>173</x:v>
-      </x:c>
-      <x:c r="E11" s="47"/>
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E11" s="47" t="s">
+        <x:v>36</x:v>
+      </x:c>
       <x:c r="F11" s="47" t="s"/>
       <x:c r="G11" s="47"/>
       <x:c r="H11" s="47" t="s">
@@ -12964,7 +12969,7 @@
         <x:v>191</x:v>
       </x:c>
       <x:c r="D12" s="47" t="s">
-        <x:v>97</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E12" s="47"/>
       <x:c r="F12" s="47" t="s"/>
@@ -12987,18 +12992,16 @@
         <x:v>193</x:v>
       </x:c>
       <x:c r="D13" s="47" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="E13" s="47" t="s">
-        <x:v>10</x:v>
-      </x:c>
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E13" s="47"/>
       <x:c r="F13" s="47" t="s"/>
       <x:c r="G13" s="47"/>
       <x:c r="H13" s="47" t="s">
         <x:v>89</x:v>
       </x:c>
       <x:c r="I13" s="48" t="s">
-        <x:v>194</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9" ht="16.2" customHeight="1">
@@ -13006,16 +13009,16 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B14" s="45" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="C14" s="46" t="s">
         <x:v>195</x:v>
       </x:c>
-      <x:c r="C14" s="46" t="s">
-        <x:v>196</x:v>
-      </x:c>
       <x:c r="D14" s="47" t="s">
-        <x:v>91</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E14" s="47" t="s">
-        <x:v>110</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F14" s="47" t="s"/>
       <x:c r="G14" s="47"/>
@@ -13037,16 +13040,18 @@
         <x:v>198</x:v>
       </x:c>
       <x:c r="D15" s="47" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="E15" s="47"/>
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E15" s="47" t="s">
+        <x:v>110</x:v>
+      </x:c>
       <x:c r="F15" s="47" t="s"/>
       <x:c r="G15" s="47"/>
       <x:c r="H15" s="47" t="s">
-        <x:v>108</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I15" s="48" t="s">
-        <x:v>199</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9" ht="16.2" customHeight="1">
@@ -13054,21 +13059,19 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B16" s="45" t="s">
-        <x:v>112</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="C16" s="46" t="s">
         <x:v>200</x:v>
       </x:c>
       <x:c r="D16" s="47" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="E16" s="47" t="s">
-        <x:v>64</x:v>
-      </x:c>
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="E16" s="47"/>
       <x:c r="F16" s="47" t="s"/>
       <x:c r="G16" s="47"/>
       <x:c r="H16" s="47" t="s">
-        <x:v>89</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I16" s="48" t="s">
         <x:v>201</x:v>
@@ -13079,62 +13082,62 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="B17" s="45" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C17" s="46" t="s">
         <x:v>202</x:v>
       </x:c>
-      <x:c r="C17" s="46"/>
       <x:c r="D17" s="47" t="s">
-        <x:v>94</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E17" s="47" t="s">
-        <x:v>107</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F17" s="47" t="s"/>
       <x:c r="G17" s="47"/>
       <x:c r="H17" s="47" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="I17" s="48"/>
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="I17" s="48" t="s">
+        <x:v>203</x:v>
+      </x:c>
     </x:row>
     <x:row r="18" spans="1:9" ht="16.2" customHeight="1">
       <x:c r="A18" s="44" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="B18" s="45" t="s">
-        <x:v>203</x:v>
-      </x:c>
-      <x:c r="C18" s="46" t="s">
         <x:v>204</x:v>
       </x:c>
+      <x:c r="C18" s="46"/>
       <x:c r="D18" s="47" t="s">
-        <x:v>104</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E18" s="47" t="s">
-        <x:v>10</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F18" s="47" t="s"/>
       <x:c r="G18" s="47"/>
       <x:c r="H18" s="47" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="I18" s="48" t="s">
-        <x:v>205</x:v>
-      </x:c>
+      <x:c r="I18" s="48"/>
     </x:row>
     <x:row r="19" spans="1:9" ht="16.2" customHeight="1">
       <x:c r="A19" s="44" t="s">
         <x:v>42</x:v>
       </x:c>
       <x:c r="B19" s="45" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="C19" s="46" t="s">
         <x:v>206</x:v>
       </x:c>
-      <x:c r="C19" s="46" t="s">
-        <x:v>207</x:v>
-      </x:c>
       <x:c r="D19" s="47" t="s">
-        <x:v>91</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E19" s="47" t="s">
-        <x:v>110</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F19" s="47" t="s"/>
       <x:c r="G19" s="47"/>
@@ -13142,7 +13145,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="I19" s="48" t="s">
-        <x:v>208</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9" ht="16.2" customHeight="1">
@@ -13150,34 +13153,48 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="B20" s="45" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="C20" s="46" t="s">
         <x:v>209</x:v>
       </x:c>
-      <x:c r="C20" s="46" t="s">
-        <x:v>210</x:v>
-      </x:c>
       <x:c r="D20" s="47" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="E20" s="47"/>
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E20" s="47" t="s">
+        <x:v>110</x:v>
+      </x:c>
       <x:c r="F20" s="47" t="s"/>
       <x:c r="G20" s="47"/>
       <x:c r="H20" s="47" t="s">
         <x:v>108</x:v>
       </x:c>
       <x:c r="I20" s="48" t="s">
+        <x:v>210</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:9" ht="16.2" customHeight="1">
+      <x:c r="A21" s="44" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B21" s="45" t="s">
         <x:v>211</x:v>
       </x:c>
-    </x:row>
-    <x:row r="21" spans="1:9">
-      <x:c r="A21" s="27"/>
-      <x:c r="B21" s="28"/>
-      <x:c r="C21" s="2"/>
-      <x:c r="D21" s="1"/>
-      <x:c r="E21" s="1"/>
-      <x:c r="F21" s="1"/>
-      <x:c r="G21" s="1"/>
-      <x:c r="H21" s="1"/>
-      <x:c r="I21" s="29"/>
+      <x:c r="C21" s="46" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="D21" s="47" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="E21" s="47"/>
+      <x:c r="F21" s="47" t="s"/>
+      <x:c r="G21" s="47"/>
+      <x:c r="H21" s="47" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="I21" s="48" t="s">
+        <x:v>213</x:v>
+      </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="27"/>
@@ -13288,6 +13305,28 @@
       <x:c r="G31" s="1"/>
       <x:c r="H31" s="1"/>
       <x:c r="I31" s="29"/>
+    </x:row>
+    <x:row r="32" spans="1:9">
+      <x:c r="A32" s="27"/>
+      <x:c r="B32" s="28"/>
+      <x:c r="C32" s="2"/>
+      <x:c r="D32" s="1"/>
+      <x:c r="E32" s="1"/>
+      <x:c r="F32" s="1"/>
+      <x:c r="G32" s="1"/>
+      <x:c r="H32" s="1"/>
+      <x:c r="I32" s="29"/>
+    </x:row>
+    <x:row r="33" spans="1:9">
+      <x:c r="A33" s="27"/>
+      <x:c r="B33" s="28"/>
+      <x:c r="C33" s="2"/>
+      <x:c r="D33" s="1"/>
+      <x:c r="E33" s="1"/>
+      <x:c r="F33" s="1"/>
+      <x:c r="G33" s="1"/>
+      <x:c r="H33" s="1"/>
+      <x:c r="I33" s="29"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="7">
@@ -13340,7 +13379,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>212</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -13363,7 +13402,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>213</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -13371,7 +13410,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>214</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -13442,10 +13481,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>186</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
-        <x:v>215</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="D8" s="47" t="s">
         <x:v>91</x:v>
@@ -13461,7 +13500,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
-        <x:v>215</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
@@ -13472,7 +13511,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
-        <x:v>216</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="D9" s="47" t="s">
         <x:v>94</x:v>
@@ -13486,7 +13525,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I9" s="48" t="s">
-        <x:v>216</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" ht="16.2" customHeight="1">
@@ -13497,7 +13536,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
-        <x:v>217</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="D10" s="47" t="s">
         <x:v>94</x:v>
@@ -13511,7 +13550,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I10" s="48" t="s">
-        <x:v>217</x:v>
+        <x:v>219</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9" ht="16.2" customHeight="1">
@@ -13522,7 +13561,7 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="C11" s="46" t="s">
-        <x:v>218</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="D11" s="47" t="s">
         <x:v>91</x:v>
@@ -13536,7 +13575,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I11" s="48" t="s">
-        <x:v>218</x:v>
+        <x:v>220</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9" ht="16.2" customHeight="1">
@@ -13544,10 +13583,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B12" s="45" t="s">
-        <x:v>219</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="C12" s="46" t="s">
-        <x:v>220</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="D12" s="47" t="s">
         <x:v>97</x:v>
@@ -13559,7 +13598,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I12" s="48" t="s">
-        <x:v>220</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">

--- a/Vista.DB/Schema/AuctionDB_Schema.xlsx
+++ b/Vista.DB/Schema/AuctionDB_Schema.xlsx
@@ -47,7 +47,7 @@
     <x:definedName name="FieldList_tpl" localSheetId="5">DonationRecord!$A$8:$I$12</x:definedName>
     <x:definedName name="FieldList_tpl" localSheetId="6">GiveOrder!$A$8:$I$21</x:definedName>
     <x:definedName name="FieldList_tpl" localSheetId="7">GivePrize!$A$8:$I$12</x:definedName>
-    <x:definedName name="FieldList_tpl" localSheetId="8">GiveTicket!$A$8:$I$11</x:definedName>
+    <x:definedName name="FieldList_tpl" localSheetId="8">GiveTicket!$A$8:$I$12</x:definedName>
     <x:definedName name="FieldList_tpl" localSheetId="9">GiveWinner!$A$8:$I$9</x:definedName>
     <x:definedName name="FieldList_tpl" localSheetId="10">LiveSession!$A$8:$I$11</x:definedName>
     <x:definedName name="FieldList_tpl" localSheetId="11">OpenAskRecord!$A$8:$I$15</x:definedName>
@@ -141,7 +141,7 @@
     <x:t>資料庫名稱 : AuctionDB</x:t>
   </x:si>
   <x:si>
-    <x:t>製表日期 : 2025-09-24</x:t>
+    <x:t>製表日期 : 2025-09-25</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -1340,6 +1340,9 @@
   </x:si>
   <x:si>
     <x:t>訂單號碼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>福袋獎品標的</x:t>
   </x:si>
   <x:si>
     <x:t>貴賓編號</x:t>
@@ -3545,7 +3548,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:I13"/>
+  <x:dimension ref="A1:I15"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="B6" sqref="B6 B6:I6"/>
@@ -3720,7 +3723,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="45" t="s">
-        <x:v>92</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
         <x:v>229</x:v>
@@ -3745,16 +3748,16 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B11" s="45" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C11" s="46" t="s">
         <x:v>230</x:v>
       </x:c>
-      <x:c r="C11" s="46" t="s">
-        <x:v>231</x:v>
-      </x:c>
       <x:c r="D11" s="47" t="s">
-        <x:v>94</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E11" s="47" t="s">
-        <x:v>95</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F11" s="47" t="s"/>
       <x:c r="G11" s="47"/>
@@ -3762,19 +3765,33 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I11" s="48" t="s">
+        <x:v>230</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:9" ht="16.2" customHeight="1">
+      <x:c r="A12" s="44" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B12" s="45" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="C12" s="46" t="s">
         <x:v>232</x:v>
       </x:c>
-    </x:row>
-    <x:row r="12" spans="1:9">
-      <x:c r="A12" s="27"/>
-      <x:c r="B12" s="28"/>
-      <x:c r="C12" s="2"/>
-      <x:c r="D12" s="1"/>
-      <x:c r="E12" s="1"/>
-      <x:c r="F12" s="1"/>
-      <x:c r="G12" s="1"/>
-      <x:c r="H12" s="1"/>
-      <x:c r="I12" s="29"/>
+      <x:c r="D12" s="47" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E12" s="47" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="F12" s="47" t="s"/>
+      <x:c r="G12" s="47"/>
+      <x:c r="H12" s="47" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="I12" s="48" t="s">
+        <x:v>233</x:v>
+      </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
       <x:c r="A13" s="27"/>
@@ -3786,6 +3803,28 @@
       <x:c r="G13" s="1"/>
       <x:c r="H13" s="1"/>
       <x:c r="I13" s="29"/>
+    </x:row>
+    <x:row r="14" spans="1:9">
+      <x:c r="A14" s="27"/>
+      <x:c r="B14" s="28"/>
+      <x:c r="C14" s="2"/>
+      <x:c r="D14" s="1"/>
+      <x:c r="E14" s="1"/>
+      <x:c r="F14" s="1"/>
+      <x:c r="G14" s="1"/>
+      <x:c r="H14" s="1"/>
+      <x:c r="I14" s="29"/>
+    </x:row>
+    <x:row r="15" spans="1:9">
+      <x:c r="A15" s="27"/>
+      <x:c r="B15" s="28"/>
+      <x:c r="C15" s="2"/>
+      <x:c r="D15" s="1"/>
+      <x:c r="E15" s="1"/>
+      <x:c r="F15" s="1"/>
+      <x:c r="G15" s="1"/>
+      <x:c r="H15" s="1"/>
+      <x:c r="I15" s="29"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="7">
@@ -3838,7 +3877,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -3861,7 +3900,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -3869,7 +3908,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -4028,7 +4067,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -4051,7 +4090,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -4059,7 +4098,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -4130,10 +4169,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="D8" s="47" t="s">
         <x:v>91</x:v>
@@ -4149,7 +4188,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
@@ -4157,7 +4196,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B9" s="45" t="s">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
         <x:v>76</x:v>
@@ -4182,10 +4221,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="45" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="D10" s="47" t="s">
         <x:v>94</x:v>
@@ -4199,7 +4238,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="I10" s="48" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9" ht="16.2" customHeight="1">
@@ -4207,10 +4246,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B11" s="45" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="C11" s="46" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="D11" s="47" t="s">
         <x:v>97</x:v>
@@ -4222,7 +4261,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="I11" s="48" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -4298,7 +4337,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -4321,7 +4360,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -4329,7 +4368,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -4400,7 +4439,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
         <x:v>41</x:v>
@@ -4428,7 +4467,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="D9" s="47" t="s">
         <x:v>91</x:v>
@@ -4444,7 +4483,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I9" s="48" t="s">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" ht="16.2" customHeight="1">
@@ -4455,7 +4494,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="D10" s="47" t="s">
         <x:v>94</x:v>
@@ -4469,7 +4508,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I10" s="48" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9" ht="16.2" customHeight="1">
@@ -4503,7 +4542,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="C12" s="46" t="s">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="D12" s="47" t="s">
         <x:v>101</x:v>
@@ -4515,7 +4554,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I12" s="48" t="s">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9" ht="16.2" customHeight="1">
@@ -4523,10 +4562,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B13" s="45" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="C13" s="46" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="D13" s="47" t="s">
         <x:v>91</x:v>
@@ -4540,7 +4579,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I13" s="48" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9" ht="16.2" customHeight="1">
@@ -4548,10 +4587,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B14" s="45" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="C14" s="46" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="D14" s="47" t="s">
         <x:v>91</x:v>
@@ -4565,7 +4604,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="I14" s="48" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9" ht="16.2" customHeight="1">
@@ -4576,7 +4615,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="C15" s="46" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="D15" s="47" t="s">
         <x:v>91</x:v>
@@ -4592,7 +4631,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I15" s="48" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -4712,7 +4751,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -4735,7 +4774,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -4743,7 +4782,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>261</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -4814,10 +4853,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
-        <x:v>262</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="D8" s="47" t="s">
         <x:v>173</x:v>
@@ -4831,7 +4870,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
-        <x:v>263</x:v>
+        <x:v>264</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
@@ -4842,7 +4881,7 @@
         <x:v>176</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
-        <x:v>264</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="D9" s="47" t="s">
         <x:v>97</x:v>
@@ -4854,7 +4893,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I9" s="48" t="s">
-        <x:v>264</x:v>
+        <x:v>265</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" ht="16.2" customHeight="1">
@@ -4862,10 +4901,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="45" t="s">
-        <x:v>265</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
-        <x:v>266</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="D10" s="47" t="s">
         <x:v>104</x:v>
@@ -4881,7 +4920,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I10" s="48" t="s">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -4946,7 +4985,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>268</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -4969,7 +5008,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>269</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -4977,7 +5016,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>270</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -5048,7 +5087,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>271</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
         <x:v>183</x:v>
@@ -5067,7 +5106,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
-        <x:v>272</x:v>
+        <x:v>273</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
@@ -5075,10 +5114,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B9" s="45" t="s">
-        <x:v>273</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
-        <x:v>274</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="D9" s="47" t="s">
         <x:v>94</x:v>
@@ -5092,7 +5131,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I9" s="48" t="s">
-        <x:v>274</x:v>
+        <x:v>275</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" ht="16.2" customHeight="1">
@@ -5100,10 +5139,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="45" t="s">
-        <x:v>275</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
-        <x:v>276</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="D10" s="47" t="s">
         <x:v>91</x:v>
@@ -5117,7 +5156,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I10" s="48" t="s">
-        <x:v>276</x:v>
+        <x:v>277</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9" ht="16.2" customHeight="1">
@@ -5125,10 +5164,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B11" s="45" t="s">
-        <x:v>277</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="C11" s="46" t="s">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="D11" s="47" t="s">
         <x:v>91</x:v>
@@ -5142,7 +5181,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I11" s="48" t="s">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9" ht="16.2" customHeight="1">
@@ -5566,7 +5605,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -5589,7 +5628,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -5597,7 +5636,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -5668,10 +5707,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="D8" s="47" t="s">
         <x:v>91</x:v>
@@ -5687,7 +5726,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
@@ -5698,7 +5737,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="D9" s="47" t="s">
         <x:v>94</x:v>
@@ -5712,7 +5751,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I9" s="48" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" ht="16.2" customHeight="1">
@@ -5723,7 +5762,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="D10" s="47" t="s">
         <x:v>94</x:v>
@@ -5737,7 +5776,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I10" s="48" t="s">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9" ht="16.2" customHeight="1">
@@ -5748,7 +5787,7 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="C11" s="46" t="s">
-        <x:v>286</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="D11" s="47" t="s">
         <x:v>91</x:v>
@@ -5762,7 +5801,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I11" s="48" t="s">
-        <x:v>286</x:v>
+        <x:v>287</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9" ht="16.2" customHeight="1">
@@ -5773,7 +5812,7 @@
         <x:v>221</x:v>
       </x:c>
       <x:c r="C12" s="46" t="s">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="D12" s="47" t="s">
         <x:v>97</x:v>
@@ -5785,7 +5824,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I12" s="48" t="s">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9" ht="16.2" customHeight="1">
@@ -5793,10 +5832,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B13" s="45" t="s">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="C13" s="46" t="s">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="D13" s="47" t="s">
         <x:v>91</x:v>
@@ -5810,7 +5849,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I13" s="48" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -5908,7 +5947,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>291</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -5931,7 +5970,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -5939,7 +5978,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -6010,10 +6049,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="D8" s="47" t="s">
         <x:v>104</x:v>
@@ -6029,7 +6068,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
@@ -6037,7 +6076,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B9" s="45" t="s">
-        <x:v>297</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
         <x:v>183</x:v>
@@ -6054,7 +6093,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I9" s="48" t="s">
-        <x:v>272</x:v>
+        <x:v>273</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" ht="16.2" customHeight="1">
@@ -6062,10 +6101,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="45" t="s">
-        <x:v>273</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
-        <x:v>274</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="D10" s="47" t="s">
         <x:v>94</x:v>
@@ -6079,7 +6118,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I10" s="48" t="s">
-        <x:v>274</x:v>
+        <x:v>275</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9" ht="16.2" customHeight="1">
@@ -6087,10 +6126,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B11" s="45" t="s">
-        <x:v>275</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="C11" s="46" t="s">
-        <x:v>276</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="D11" s="47" t="s">
         <x:v>91</x:v>
@@ -6104,7 +6143,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I11" s="48" t="s">
-        <x:v>276</x:v>
+        <x:v>277</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9" ht="16.2" customHeight="1">
@@ -6112,10 +6151,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B12" s="45" t="s">
-        <x:v>277</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="C12" s="46" t="s">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="D12" s="47" t="s">
         <x:v>91</x:v>
@@ -6129,7 +6168,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I12" s="48" t="s">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9" ht="16.2" customHeight="1">
@@ -6137,10 +6176,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B13" s="45" t="s">
-        <x:v>298</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="C13" s="46" t="s">
-        <x:v>299</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="D13" s="47" t="s">
         <x:v>173</x:v>
@@ -6154,7 +6193,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I13" s="48" t="s">
-        <x:v>299</x:v>
+        <x:v>300</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9" ht="16.2" customHeight="1">
@@ -6162,10 +6201,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B14" s="45" t="s">
-        <x:v>300</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="C14" s="46" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="D14" s="47" t="s">
         <x:v>101</x:v>
@@ -6177,7 +6216,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="I14" s="48" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -6286,7 +6325,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -6309,7 +6348,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -6317,7 +6356,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -6388,10 +6427,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="D8" s="47" t="s">
         <x:v>91</x:v>
@@ -6405,7 +6444,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
@@ -6413,10 +6452,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B9" s="45" t="s">
-        <x:v>306</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
-        <x:v>307</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="D9" s="47" t="s">
         <x:v>104</x:v>
@@ -6430,7 +6469,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I9" s="48" t="s">
-        <x:v>307</x:v>
+        <x:v>308</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -6484,7 +6523,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -6507,7 +6546,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>309</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -6515,7 +6554,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>310</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -6687,7 +6726,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B13" s="45" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="C13" s="46"/>
       <x:c r="D13" s="47" t="s">
@@ -6717,7 +6756,7 @@
       </x:c>
       <x:c r="F14" s="47" t="s"/>
       <x:c r="G14" s="47" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="H14" s="47" t="s">
         <x:v>89</x:v>
@@ -6773,7 +6812,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="B17" s="45" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="C17" s="46"/>
       <x:c r="D17" s="47" t="s">
@@ -6796,7 +6835,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="B18" s="45" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="C18" s="46"/>
       <x:c r="D18" s="47" t="s">
@@ -6836,7 +6875,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="B20" s="45" t="s">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="C20" s="46"/>
       <x:c r="D20" s="47" t="s">
@@ -6857,14 +6896,14 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="B21" s="45" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="C21" s="46"/>
       <x:c r="D21" s="47" t="s">
         <x:v>91</x:v>
       </x:c>
       <x:c r="E21" s="47" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="F21" s="47" t="s"/>
       <x:c r="G21" s="47"/>
@@ -7623,7 +7662,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -7646,7 +7685,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -7654,7 +7693,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -7866,7 +7905,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B15" s="45" t="s">
-        <x:v>321</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="C15" s="46"/>
       <x:c r="D15" s="47" t="s">
@@ -7887,7 +7926,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B16" s="45" t="s">
-        <x:v>322</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="C16" s="46"/>
       <x:c r="D16" s="47" t="s">
@@ -7950,7 +7989,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="B19" s="45" t="s">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="C19" s="46"/>
       <x:c r="D19" s="47" t="s">
@@ -8449,7 +8488,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -8472,7 +8511,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -8480,7 +8519,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -8676,10 +8715,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B13" s="45" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="C13" s="46" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="D13" s="47" t="s">
         <x:v>97</x:v>
@@ -8691,7 +8730,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I13" s="48" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9" ht="16.2" customHeight="1">
@@ -8699,10 +8738,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B14" s="45" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="C14" s="46" t="s">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="D14" s="47" t="s">
         <x:v>104</x:v>
@@ -8716,7 +8755,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I14" s="48" t="s">
-        <x:v>331</x:v>
+        <x:v>332</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9" ht="16.2" customHeight="1">
@@ -8724,10 +8763,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B15" s="45" t="s">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="C15" s="46" t="s">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="D15" s="47" t="s">
         <x:v>104</x:v>
@@ -8743,7 +8782,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I15" s="48" t="s">
-        <x:v>331</x:v>
+        <x:v>332</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9" ht="16.2" customHeight="1">
@@ -8774,7 +8813,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="B17" s="45" t="s">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="C17" s="46"/>
       <x:c r="D17" s="47" t="s">
@@ -9027,7 +9066,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -9050,7 +9089,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -9058,7 +9097,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -9132,7 +9171,7 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="D8" s="47" t="s">
         <x:v>91</x:v>
@@ -9148,7 +9187,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
@@ -9156,10 +9195,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B9" s="45" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="D9" s="47" t="s">
         <x:v>91</x:v>
@@ -9173,7 +9212,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I9" s="48" t="s">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" ht="16.2" customHeight="1">
@@ -9181,10 +9220,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="45" t="s">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
-        <x:v>341</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="D10" s="47" t="s">
         <x:v>94</x:v>
@@ -9198,7 +9237,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I10" s="48" t="s">
-        <x:v>341</x:v>
+        <x:v>342</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9" ht="16.2" customHeight="1">
@@ -9206,10 +9245,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B11" s="45" t="s">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="C11" s="46" t="s">
-        <x:v>343</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="D11" s="47" t="s">
         <x:v>91</x:v>
@@ -9223,7 +9262,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I11" s="48" t="s">
-        <x:v>343</x:v>
+        <x:v>344</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9" ht="16.2" customHeight="1">
@@ -9231,10 +9270,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B12" s="45" t="s">
-        <x:v>344</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="C12" s="46" t="s">
-        <x:v>345</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="D12" s="47" t="s">
         <x:v>94</x:v>
@@ -9248,7 +9287,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I12" s="48" t="s">
-        <x:v>346</x:v>
+        <x:v>347</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9" ht="16.2" customHeight="1">
@@ -9283,10 +9322,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B14" s="45" t="s">
-        <x:v>347</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="C14" s="46" t="s">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="D14" s="47" t="s">
         <x:v>104</x:v>
@@ -9300,7 +9339,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I14" s="48" t="s">
-        <x:v>349</x:v>
+        <x:v>350</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -9409,7 +9448,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>350</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -9432,7 +9471,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>351</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -9440,7 +9479,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>352</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -9511,16 +9550,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>353</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
-        <x:v>354</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="D8" s="47" t="s">
         <x:v>91</x:v>
       </x:c>
       <x:c r="E8" s="47" t="s">
-        <x:v>355</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="F8" s="47" t="s">
         <x:v>88</x:v>
@@ -9530,7 +9569,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
-        <x:v>354</x:v>
+        <x:v>355</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
@@ -9541,7 +9580,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
-        <x:v>356</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="D9" s="47" t="s">
         <x:v>91</x:v>
@@ -9555,7 +9594,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I9" s="48" t="s">
-        <x:v>356</x:v>
+        <x:v>357</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" ht="16.2" customHeight="1">
@@ -9566,7 +9605,7 @@
         <x:v>221</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
-        <x:v>357</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="D10" s="47" t="s">
         <x:v>94</x:v>
@@ -9580,7 +9619,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I10" s="48" t="s">
-        <x:v>357</x:v>
+        <x:v>358</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9" ht="16.2" customHeight="1">
@@ -9588,10 +9627,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B11" s="45" t="s">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="C11" s="46" t="s">
-        <x:v>358</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="D11" s="47" t="s">
         <x:v>91</x:v>
@@ -9605,7 +9644,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I11" s="48" t="s">
-        <x:v>359</x:v>
+        <x:v>360</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9" ht="16.2" customHeight="1">
@@ -9719,7 +9758,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>360</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -9742,7 +9781,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>361</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -9750,7 +9789,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>362</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -9824,7 +9863,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="D8" s="47" t="s">
         <x:v>91</x:v>
@@ -9840,7 +9879,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
@@ -9851,7 +9890,7 @@
         <x:v>186</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
-        <x:v>363</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="D9" s="47" t="s">
         <x:v>94</x:v>
@@ -9865,7 +9904,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I9" s="48" t="s">
-        <x:v>363</x:v>
+        <x:v>364</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" ht="16.2" customHeight="1">
@@ -9873,10 +9912,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="45" t="s">
-        <x:v>364</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="D10" s="47" t="s">
         <x:v>91</x:v>
@@ -9890,7 +9929,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I10" s="48" t="s">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9" ht="16.2" customHeight="1">
@@ -9898,10 +9937,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B11" s="45" t="s">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="C11" s="46" t="s">
-        <x:v>367</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="D11" s="47" t="s">
         <x:v>91</x:v>
@@ -9915,7 +9954,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I11" s="48" t="s">
-        <x:v>367</x:v>
+        <x:v>368</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9" ht="16.2" customHeight="1">
@@ -9923,10 +9962,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B12" s="45" t="s">
-        <x:v>368</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="C12" s="46" t="s">
-        <x:v>369</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="D12" s="47" t="s">
         <x:v>91</x:v>
@@ -9940,7 +9979,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I12" s="48" t="s">
-        <x:v>369</x:v>
+        <x:v>370</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9" ht="16.2" customHeight="1">
@@ -9948,10 +9987,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B13" s="45" t="s">
-        <x:v>370</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="C13" s="46" t="s">
-        <x:v>371</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="D13" s="47" t="s">
         <x:v>91</x:v>
@@ -9965,7 +10004,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I13" s="48" t="s">
-        <x:v>371</x:v>
+        <x:v>372</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9" ht="16.2" customHeight="1">
@@ -9973,10 +10012,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B14" s="45" t="s">
-        <x:v>372</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="C14" s="46" t="s">
-        <x:v>373</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="D14" s="47" t="s">
         <x:v>104</x:v>
@@ -9992,7 +10031,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I14" s="48" t="s">
-        <x:v>373</x:v>
+        <x:v>374</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9" ht="16.2" customHeight="1">
@@ -10000,10 +10039,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B15" s="45" t="s">
-        <x:v>374</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="C15" s="46" t="s">
-        <x:v>375</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="D15" s="47" t="s">
         <x:v>94</x:v>
@@ -10017,7 +10056,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I15" s="48" t="s">
-        <x:v>375</x:v>
+        <x:v>376</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9" ht="16.2" customHeight="1">
@@ -10025,10 +10064,10 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B16" s="45" t="s">
-        <x:v>376</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="C16" s="46" t="s">
-        <x:v>377</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="D16" s="47" t="s">
         <x:v>91</x:v>
@@ -10042,7 +10081,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I16" s="48" t="s">
-        <x:v>377</x:v>
+        <x:v>378</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -10173,7 +10212,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>378</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -10196,7 +10235,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>379</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -10204,7 +10243,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>380</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -10374,7 +10413,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B13" s="45" t="s">
-        <x:v>381</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="C13" s="46"/>
       <x:c r="D13" s="47" t="s">

--- a/Vista.DB/Schema/AuctionDB_Schema.xlsx
+++ b/Vista.DB/Schema/AuctionDB_Schema.xlsx
@@ -141,7 +141,7 @@
     <x:t>資料庫名稱 : AuctionDB</x:t>
   </x:si>
   <x:si>
-    <x:t>製表日期 : 2025-09-25</x:t>
+    <x:t>製表日期 : 2025-10-02</x:t>
   </x:si>
   <x:si>
     <x:r>

--- a/Vista.DB/Schema/AuctionDB_Schema.xlsx
+++ b/Vista.DB/Schema/AuctionDB_Schema.xlsx
@@ -49,7 +49,7 @@
     <x:definedName name="FieldList_tpl" localSheetId="6">GiveOrder!$A$8:$I$21</x:definedName>
     <x:definedName name="FieldList_tpl" localSheetId="7">GivePrize!$A$8:$I$12</x:definedName>
     <x:definedName name="FieldList_tpl" localSheetId="8">GiveTicket!$A$8:$I$12</x:definedName>
-    <x:definedName name="FieldList_tpl" localSheetId="9">GiveWinner!$A$8:$I$9</x:definedName>
+    <x:definedName name="FieldList_tpl" localSheetId="9">GiveWinner!$A$8:$I$10</x:definedName>
     <x:definedName name="FieldList_tpl" localSheetId="10">LiveSession!$A$8:$I$11</x:definedName>
     <x:definedName name="FieldList_tpl" localSheetId="11">OpenAskEntry!$A$8:$I$13</x:definedName>
     <x:definedName name="FieldList_tpl" localSheetId="12">OpenAskRecord!$A$8:$I$24</x:definedName>
@@ -57,7 +57,7 @@
     <x:definedName name="FieldList_tpl" localSheetId="14">RaffleOrder!$A$8:$I$21</x:definedName>
     <x:definedName name="FieldList_tpl" localSheetId="15">RafflePrize!$A$8:$I$13</x:definedName>
     <x:definedName name="FieldList_tpl" localSheetId="16">RaffleTicket!$A$8:$I$14</x:definedName>
-    <x:definedName name="FieldList_tpl" localSheetId="17">RaffleWinner!$A$8:$I$9</x:definedName>
+    <x:definedName name="FieldList_tpl" localSheetId="17">RaffleWinner!$A$8:$I$10</x:definedName>
     <x:definedName name="FieldList_tpl" localSheetId="18">SilentBidEvent!$A$8:$I$21</x:definedName>
     <x:definedName name="FieldList_tpl" localSheetId="19">SilentHammered!$A$8:$I$29</x:definedName>
     <x:definedName name="FieldList_tpl" localSheetId="20">SilentPrize!$A$8:$I$20</x:definedName>
@@ -1458,6 +1458,9 @@
     <x:phoneticPr fontId="0" type="noConversion"/>
   </x:si>
   <x:si>
+    <x:t>DrawDtm</x:t>
+  </x:si>
+  <x:si>
     <x:r>
       <x:rPr>
         <x:vertAlign val="baseline"/>
@@ -2224,6 +2227,9 @@
   </x:si>
   <x:si>
     <x:t>中獎抽獎券編號</x:t>
+  </x:si>
+  <x:si>
+    <x:t>抽獎時間</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -4020,7 +4026,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:I9"/>
+  <x:dimension ref="A1:I11"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="B6" sqref="B6 B6:I6"/>
@@ -4152,7 +4158,9 @@
       <x:c r="E8" s="47" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="F8" s="47" t="s"/>
+      <x:c r="F8" s="47" t="s">
+        <x:v>90</x:v>
+      </x:c>
       <x:c r="G8" s="47"/>
       <x:c r="H8" s="47" t="s">
         <x:v>91</x:v>
@@ -4173,12 +4181,44 @@
       <x:c r="E9" s="47" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="F9" s="47" t="s"/>
+      <x:c r="F9" s="47" t="s">
+        <x:v>90</x:v>
+      </x:c>
       <x:c r="G9" s="47"/>
       <x:c r="H9" s="47" t="s">
         <x:v>91</x:v>
       </x:c>
       <x:c r="I9" s="48"/>
+    </x:row>
+    <x:row r="10" spans="1:9" ht="16.2" customHeight="1">
+      <x:c r="A10" s="44" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B10" s="45" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="C10" s="46"/>
+      <x:c r="D10" s="47" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E10" s="47"/>
+      <x:c r="F10" s="47" t="s"/>
+      <x:c r="G10" s="47"/>
+      <x:c r="H10" s="47" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="I10" s="48"/>
+    </x:row>
+    <x:row r="11" spans="1:9">
+      <x:c r="A11" s="27"/>
+      <x:c r="B11" s="28"/>
+      <x:c r="C11" s="2"/>
+      <x:c r="D11" s="1"/>
+      <x:c r="E11" s="1"/>
+      <x:c r="F11" s="1"/>
+      <x:c r="G11" s="1"/>
+      <x:c r="H11" s="1"/>
+      <x:c r="I11" s="29"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="7">
@@ -4231,7 +4271,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -4254,7 +4294,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -4262,7 +4302,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -4333,10 +4373,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="D8" s="47" t="s">
         <x:v>93</x:v>
@@ -4352,7 +4392,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
@@ -4360,7 +4400,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B9" s="45" t="s">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
         <x:v>78</x:v>
@@ -4385,10 +4425,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="45" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="D10" s="47" t="s">
         <x:v>96</x:v>
@@ -4402,7 +4442,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="I10" s="48" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9" ht="16.2" customHeight="1">
@@ -4410,10 +4450,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B11" s="45" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="C11" s="46" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="D11" s="47" t="s">
         <x:v>99</x:v>
@@ -4425,7 +4465,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="I11" s="48" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -4501,7 +4541,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -4524,7 +4564,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -4532,7 +4572,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -4604,7 +4644,7 @@
         <x:v>174</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="D8" s="47" t="s">
         <x:v>175</x:v>
@@ -4618,7 +4658,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
@@ -4626,10 +4666,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B9" s="45" t="s">
-        <x:v>261</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
-        <x:v>262</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="D9" s="47" t="s">
         <x:v>175</x:v>
@@ -4641,7 +4681,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I9" s="48" t="s">
-        <x:v>263</x:v>
+        <x:v>264</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" ht="16.2" customHeight="1">
@@ -4652,7 +4692,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
-        <x:v>264</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="D10" s="47" t="s">
         <x:v>99</x:v>
@@ -4664,7 +4704,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I10" s="48" t="s">
-        <x:v>264</x:v>
+        <x:v>265</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9" ht="16.2" customHeight="1">
@@ -4700,7 +4740,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="C12" s="46" t="s">
-        <x:v>265</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="D12" s="47" t="s">
         <x:v>93</x:v>
@@ -4714,7 +4754,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I12" s="48" t="s">
-        <x:v>265</x:v>
+        <x:v>266</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9" ht="16.2" customHeight="1">
@@ -4722,10 +4762,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B13" s="45" t="s">
-        <x:v>266</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="C13" s="46" t="s">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="D13" s="47" t="s">
         <x:v>103</x:v>
@@ -4737,7 +4777,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I13" s="48" t="s">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -4835,7 +4875,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>268</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -4858,7 +4898,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>269</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -4866,7 +4906,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>270</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -4940,7 +4980,7 @@
         <x:v>174</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="D8" s="47" t="s">
         <x:v>175</x:v>
@@ -4954,7 +4994,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
-        <x:v>271</x:v>
+        <x:v>272</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
@@ -4962,7 +5002,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B9" s="45" t="s">
-        <x:v>261</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
         <x:v>43</x:v>
@@ -4988,7 +5028,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
-        <x:v>272</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="D10" s="47" t="s">
         <x:v>93</x:v>
@@ -5002,7 +5042,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I10" s="48" t="s">
-        <x:v>272</x:v>
+        <x:v>273</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9" ht="16.2" customHeight="1">
@@ -5013,7 +5053,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="C11" s="46" t="s">
-        <x:v>273</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="D11" s="47" t="s">
         <x:v>96</x:v>
@@ -5027,7 +5067,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I11" s="48" t="s">
-        <x:v>273</x:v>
+        <x:v>274</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9" ht="16.2" customHeight="1">
@@ -5058,10 +5098,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B13" s="45" t="s">
-        <x:v>274</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="C13" s="46" t="s">
-        <x:v>275</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="D13" s="47" t="s">
         <x:v>93</x:v>
@@ -5075,7 +5115,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="I13" s="48" t="s">
-        <x:v>275</x:v>
+        <x:v>276</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9" ht="16.2" customHeight="1">
@@ -5083,10 +5123,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B14" s="45" t="s">
-        <x:v>276</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="C14" s="46" t="s">
-        <x:v>277</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="D14" s="47" t="s">
         <x:v>103</x:v>
@@ -5098,7 +5138,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="I14" s="48" t="s">
-        <x:v>277</x:v>
+        <x:v>278</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9" ht="16.2" customHeight="1">
@@ -5106,10 +5146,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B15" s="45" t="s">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="C15" s="46" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="D15" s="47" t="s">
         <x:v>93</x:v>
@@ -5123,7 +5163,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="I15" s="48" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9" ht="16.2" customHeight="1">
@@ -5131,10 +5171,10 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B16" s="45" t="s">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="C16" s="46" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="D16" s="47" t="s">
         <x:v>103</x:v>
@@ -5146,7 +5186,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="I16" s="48" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9" ht="16.2" customHeight="1">
@@ -5157,7 +5197,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="C17" s="46" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="D17" s="47" t="s">
         <x:v>93</x:v>
@@ -5173,7 +5213,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I17" s="48" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9" ht="16.2" customHeight="1">
@@ -5256,10 +5296,10 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="B21" s="45" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="C21" s="46" t="s">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="D21" s="47" t="s">
         <x:v>106</x:v>
@@ -5273,7 +5313,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="I21" s="48" t="s">
-        <x:v>286</x:v>
+        <x:v>287</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9" ht="16.2" customHeight="1">
@@ -5281,10 +5321,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="B22" s="45" t="s">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="C22" s="46" t="s">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="D22" s="47" t="s">
         <x:v>93</x:v>
@@ -5298,7 +5338,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="I22" s="48" t="s">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9" ht="16.2" customHeight="1">
@@ -5306,10 +5346,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="B23" s="45" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="C23" s="46" t="s">
-        <x:v>291</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="D23" s="47" t="s">
         <x:v>103</x:v>
@@ -5321,7 +5361,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="I23" s="48" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9" ht="16.2" customHeight="1">
@@ -5329,10 +5369,10 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="B24" s="45" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="C24" s="46" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="D24" s="47" t="s">
         <x:v>96</x:v>
@@ -5346,7 +5386,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="I24" s="48" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -5565,7 +5605,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -5588,7 +5628,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>297</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -5596,7 +5636,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>298</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -5667,10 +5707,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>261</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
-        <x:v>262</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="D8" s="47" t="s">
         <x:v>175</x:v>
@@ -5684,7 +5724,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
-        <x:v>263</x:v>
+        <x:v>264</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
@@ -5695,7 +5735,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
-        <x:v>299</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="D9" s="47" t="s">
         <x:v>99</x:v>
@@ -5707,7 +5747,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I9" s="48" t="s">
-        <x:v>299</x:v>
+        <x:v>300</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" ht="16.2" customHeight="1">
@@ -5715,10 +5755,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="45" t="s">
-        <x:v>300</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="D10" s="47" t="s">
         <x:v>106</x:v>
@@ -5734,7 +5774,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I10" s="48" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -5799,7 +5839,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -5822,7 +5862,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -5830,7 +5870,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -5901,7 +5941,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>306</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
         <x:v>194</x:v>
@@ -5920,7 +5960,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
-        <x:v>307</x:v>
+        <x:v>308</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
@@ -5928,10 +5968,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B9" s="45" t="s">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
-        <x:v>309</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="D9" s="47" t="s">
         <x:v>96</x:v>
@@ -5945,7 +5985,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I9" s="48" t="s">
-        <x:v>309</x:v>
+        <x:v>310</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" ht="16.2" customHeight="1">
@@ -5953,10 +5993,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="45" t="s">
-        <x:v>310</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="D10" s="47" t="s">
         <x:v>93</x:v>
@@ -5970,7 +6010,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I10" s="48" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9" ht="16.2" customHeight="1">
@@ -5978,10 +6018,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B11" s="45" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="C11" s="46" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="D11" s="47" t="s">
         <x:v>93</x:v>
@@ -5995,7 +6035,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I11" s="48" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9" ht="16.2" customHeight="1">
@@ -6419,7 +6459,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -6442,7 +6482,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -6450,7 +6490,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -6521,10 +6561,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="D8" s="47" t="s">
         <x:v>93</x:v>
@@ -6540,7 +6580,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
@@ -6551,7 +6591,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="D9" s="47" t="s">
         <x:v>96</x:v>
@@ -6565,7 +6605,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I9" s="48" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" ht="16.2" customHeight="1">
@@ -6576,7 +6616,7 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="D10" s="47" t="s">
         <x:v>96</x:v>
@@ -6590,7 +6630,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I10" s="48" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9" ht="16.2" customHeight="1">
@@ -6601,7 +6641,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="C11" s="46" t="s">
-        <x:v>321</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="D11" s="47" t="s">
         <x:v>93</x:v>
@@ -6615,7 +6655,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I11" s="48" t="s">
-        <x:v>321</x:v>
+        <x:v>322</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9" ht="16.2" customHeight="1">
@@ -6626,7 +6666,7 @@
         <x:v>231</x:v>
       </x:c>
       <x:c r="C12" s="46" t="s">
-        <x:v>322</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="D12" s="47" t="s">
         <x:v>99</x:v>
@@ -6638,7 +6678,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I12" s="48" t="s">
-        <x:v>322</x:v>
+        <x:v>323</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9" ht="16.2" customHeight="1">
@@ -6646,10 +6686,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B13" s="45" t="s">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="C13" s="46" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="D13" s="47" t="s">
         <x:v>93</x:v>
@@ -6663,7 +6703,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I13" s="48" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -6761,7 +6801,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -6784,7 +6824,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -6792,7 +6832,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -6863,10 +6903,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="D8" s="47" t="s">
         <x:v>106</x:v>
@@ -6882,7 +6922,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
-        <x:v>331</x:v>
+        <x:v>332</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
@@ -6890,7 +6930,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B9" s="45" t="s">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
         <x:v>194</x:v>
@@ -6907,7 +6947,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I9" s="48" t="s">
-        <x:v>307</x:v>
+        <x:v>308</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" ht="16.2" customHeight="1">
@@ -6915,10 +6955,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="45" t="s">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
-        <x:v>309</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="D10" s="47" t="s">
         <x:v>96</x:v>
@@ -6932,7 +6972,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I10" s="48" t="s">
-        <x:v>309</x:v>
+        <x:v>310</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9" ht="16.2" customHeight="1">
@@ -6940,10 +6980,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B11" s="45" t="s">
-        <x:v>310</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="C11" s="46" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="D11" s="47" t="s">
         <x:v>93</x:v>
@@ -6957,7 +6997,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I11" s="48" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9" ht="16.2" customHeight="1">
@@ -6965,10 +7005,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B12" s="45" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="C12" s="46" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="D12" s="47" t="s">
         <x:v>93</x:v>
@@ -6982,7 +7022,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I12" s="48" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9" ht="16.2" customHeight="1">
@@ -6990,10 +7030,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B13" s="45" t="s">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="C13" s="46" t="s">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="D13" s="47" t="s">
         <x:v>175</x:v>
@@ -7007,7 +7047,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I13" s="48" t="s">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9" ht="16.2" customHeight="1">
@@ -7015,10 +7055,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B14" s="45" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C14" s="46" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="D14" s="47" t="s">
         <x:v>103</x:v>
@@ -7030,7 +7070,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="I14" s="48" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -7118,7 +7158,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:I9"/>
+  <x:dimension ref="A1:I11"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="B6" sqref="B6 B6:I6"/>
@@ -7139,7 +7179,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -7162,7 +7202,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -7170,7 +7210,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -7241,10 +7281,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="D8" s="47" t="s">
         <x:v>93</x:v>
@@ -7252,13 +7292,15 @@
       <x:c r="E8" s="47" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="F8" s="47" t="s"/>
+      <x:c r="F8" s="47" t="s">
+        <x:v>90</x:v>
+      </x:c>
       <x:c r="G8" s="47"/>
       <x:c r="H8" s="47" t="s">
         <x:v>91</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
@@ -7266,10 +7308,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B9" s="45" t="s">
-        <x:v>341</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="D9" s="47" t="s">
         <x:v>106</x:v>
@@ -7277,14 +7319,50 @@
       <x:c r="E9" s="47" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="F9" s="47" t="s"/>
+      <x:c r="F9" s="47" t="s">
+        <x:v>90</x:v>
+      </x:c>
       <x:c r="G9" s="47"/>
       <x:c r="H9" s="47" t="s">
         <x:v>91</x:v>
       </x:c>
       <x:c r="I9" s="48" t="s">
-        <x:v>342</x:v>
-      </x:c>
+        <x:v>343</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:9" ht="16.2" customHeight="1">
+      <x:c r="A10" s="44" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B10" s="45" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="C10" s="46" t="s">
+        <x:v>344</x:v>
+      </x:c>
+      <x:c r="D10" s="47" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E10" s="47"/>
+      <x:c r="F10" s="47" t="s"/>
+      <x:c r="G10" s="47"/>
+      <x:c r="H10" s="47" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="I10" s="48" t="s">
+        <x:v>344</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:9">
+      <x:c r="A11" s="27"/>
+      <x:c r="B11" s="28"/>
+      <x:c r="C11" s="2"/>
+      <x:c r="D11" s="1"/>
+      <x:c r="E11" s="1"/>
+      <x:c r="F11" s="1"/>
+      <x:c r="G11" s="1"/>
+      <x:c r="H11" s="1"/>
+      <x:c r="I11" s="29"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="7">
@@ -7923,7 +8001,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>343</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -7946,7 +8024,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>344</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -7954,7 +8032,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>345</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -8126,7 +8204,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B13" s="45" t="s">
-        <x:v>346</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="C13" s="46"/>
       <x:c r="D13" s="47" t="s">
@@ -8156,7 +8234,7 @@
       </x:c>
       <x:c r="F14" s="47" t="s"/>
       <x:c r="G14" s="47" t="s">
-        <x:v>347</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="H14" s="47" t="s">
         <x:v>91</x:v>
@@ -8212,7 +8290,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="B17" s="45" t="s">
-        <x:v>348</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="C17" s="46"/>
       <x:c r="D17" s="47" t="s">
@@ -8235,7 +8313,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="B18" s="45" t="s">
-        <x:v>349</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="C18" s="46"/>
       <x:c r="D18" s="47" t="s">
@@ -8275,7 +8353,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="B20" s="45" t="s">
-        <x:v>350</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="C20" s="46"/>
       <x:c r="D20" s="47" t="s">
@@ -8296,14 +8374,14 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="B21" s="45" t="s">
-        <x:v>351</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="C21" s="46"/>
       <x:c r="D21" s="47" t="s">
         <x:v>93</x:v>
       </x:c>
       <x:c r="E21" s="47" t="s">
-        <x:v>352</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="F21" s="47" t="s"/>
       <x:c r="G21" s="47"/>
@@ -8495,7 +8573,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>353</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -8518,7 +8596,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>354</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -8526,7 +8604,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>355</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -8738,7 +8816,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B15" s="45" t="s">
-        <x:v>356</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C15" s="46"/>
       <x:c r="D15" s="47" t="s">
@@ -8759,7 +8837,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B16" s="45" t="s">
-        <x:v>357</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="C16" s="46"/>
       <x:c r="D16" s="47" t="s">
@@ -8822,7 +8900,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="B19" s="45" t="s">
-        <x:v>358</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="C19" s="46"/>
       <x:c r="D19" s="47" t="s">
@@ -9321,7 +9399,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>359</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -9344,7 +9422,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>360</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -9352,7 +9430,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>361</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -9548,10 +9626,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B13" s="45" t="s">
-        <x:v>362</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="C13" s="46" t="s">
-        <x:v>363</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="D13" s="47" t="s">
         <x:v>99</x:v>
@@ -9563,7 +9641,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I13" s="48" t="s">
-        <x:v>363</x:v>
+        <x:v>365</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9" ht="16.2" customHeight="1">
@@ -9571,10 +9649,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B14" s="45" t="s">
-        <x:v>364</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="C14" s="46" t="s">
-        <x:v>365</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="D14" s="47" t="s">
         <x:v>106</x:v>
@@ -9588,7 +9666,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I14" s="48" t="s">
-        <x:v>366</x:v>
+        <x:v>368</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9" ht="16.2" customHeight="1">
@@ -9596,10 +9674,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B15" s="45" t="s">
+        <x:v>369</x:v>
+      </x:c>
+      <x:c r="C15" s="46" t="s">
         <x:v>367</x:v>
-      </x:c>
-      <x:c r="C15" s="46" t="s">
-        <x:v>365</x:v>
       </x:c>
       <x:c r="D15" s="47" t="s">
         <x:v>106</x:v>
@@ -9615,7 +9693,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I15" s="48" t="s">
-        <x:v>366</x:v>
+        <x:v>368</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9" ht="16.2" customHeight="1">
@@ -9646,7 +9724,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="B17" s="45" t="s">
-        <x:v>368</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="C17" s="46"/>
       <x:c r="D17" s="47" t="s">
@@ -9899,7 +9977,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>369</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -9922,7 +10000,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>370</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -9930,7 +10008,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>371</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -10004,7 +10082,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
-        <x:v>372</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="D8" s="47" t="s">
         <x:v>93</x:v>
@@ -10020,7 +10098,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
-        <x:v>372</x:v>
+        <x:v>374</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
@@ -10028,10 +10106,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B9" s="45" t="s">
-        <x:v>373</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
-        <x:v>374</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="D9" s="47" t="s">
         <x:v>93</x:v>
@@ -10045,7 +10123,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I9" s="48" t="s">
-        <x:v>374</x:v>
+        <x:v>376</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" ht="16.2" customHeight="1">
@@ -10053,10 +10131,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="45" t="s">
-        <x:v>375</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
-        <x:v>376</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="D10" s="47" t="s">
         <x:v>96</x:v>
@@ -10070,7 +10148,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I10" s="48" t="s">
-        <x:v>376</x:v>
+        <x:v>378</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9" ht="16.2" customHeight="1">
@@ -10078,10 +10156,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B11" s="45" t="s">
-        <x:v>377</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="C11" s="46" t="s">
-        <x:v>378</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="D11" s="47" t="s">
         <x:v>93</x:v>
@@ -10095,7 +10173,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I11" s="48" t="s">
-        <x:v>378</x:v>
+        <x:v>380</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9" ht="16.2" customHeight="1">
@@ -10103,10 +10181,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B12" s="45" t="s">
-        <x:v>379</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="C12" s="46" t="s">
-        <x:v>380</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="D12" s="47" t="s">
         <x:v>96</x:v>
@@ -10120,7 +10198,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I12" s="48" t="s">
-        <x:v>381</x:v>
+        <x:v>383</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9" ht="16.2" customHeight="1">
@@ -10155,10 +10233,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B14" s="45" t="s">
-        <x:v>382</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="C14" s="46" t="s">
-        <x:v>383</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="D14" s="47" t="s">
         <x:v>106</x:v>
@@ -10172,7 +10250,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I14" s="48" t="s">
-        <x:v>384</x:v>
+        <x:v>386</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -10281,7 +10359,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>385</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -10304,7 +10382,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>386</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -10312,7 +10390,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>387</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -10383,16 +10461,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="45" t="s">
-        <x:v>388</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
-        <x:v>389</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="D8" s="47" t="s">
         <x:v>93</x:v>
       </x:c>
       <x:c r="E8" s="47" t="s">
-        <x:v>390</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="F8" s="47" t="s">
         <x:v>90</x:v>
@@ -10402,7 +10480,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
-        <x:v>389</x:v>
+        <x:v>391</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
@@ -10413,7 +10491,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
-        <x:v>391</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="D9" s="47" t="s">
         <x:v>93</x:v>
@@ -10427,7 +10505,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I9" s="48" t="s">
-        <x:v>391</x:v>
+        <x:v>393</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" ht="16.2" customHeight="1">
@@ -10438,7 +10516,7 @@
         <x:v>231</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
-        <x:v>392</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="D10" s="47" t="s">
         <x:v>96</x:v>
@@ -10452,7 +10530,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I10" s="48" t="s">
-        <x:v>392</x:v>
+        <x:v>394</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9" ht="16.2" customHeight="1">
@@ -10460,10 +10538,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B11" s="45" t="s">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="C11" s="46" t="s">
-        <x:v>393</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="D11" s="47" t="s">
         <x:v>93</x:v>
@@ -10477,7 +10555,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I11" s="48" t="s">
-        <x:v>394</x:v>
+        <x:v>396</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9" ht="16.2" customHeight="1">
@@ -10591,7 +10669,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>395</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -10614,7 +10692,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>396</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -10622,7 +10700,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>397</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -10696,7 +10774,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="C8" s="46" t="s">
-        <x:v>272</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="D8" s="47" t="s">
         <x:v>93</x:v>
@@ -10712,7 +10790,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I8" s="48" t="s">
-        <x:v>272</x:v>
+        <x:v>273</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="16.2" customHeight="1">
@@ -10723,7 +10801,7 @@
         <x:v>197</x:v>
       </x:c>
       <x:c r="C9" s="46" t="s">
-        <x:v>398</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="D9" s="47" t="s">
         <x:v>96</x:v>
@@ -10737,7 +10815,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I9" s="48" t="s">
-        <x:v>398</x:v>
+        <x:v>400</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" ht="16.2" customHeight="1">
@@ -10745,10 +10823,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="45" t="s">
-        <x:v>399</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="C10" s="46" t="s">
-        <x:v>400</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="D10" s="47" t="s">
         <x:v>93</x:v>
@@ -10762,7 +10840,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I10" s="48" t="s">
-        <x:v>400</x:v>
+        <x:v>402</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9" ht="16.2" customHeight="1">
@@ -10770,10 +10848,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B11" s="45" t="s">
-        <x:v>401</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="C11" s="46" t="s">
-        <x:v>402</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="D11" s="47" t="s">
         <x:v>93</x:v>
@@ -10787,7 +10865,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I11" s="48" t="s">
-        <x:v>402</x:v>
+        <x:v>404</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9" ht="16.2" customHeight="1">
@@ -10795,10 +10873,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B12" s="45" t="s">
-        <x:v>403</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="C12" s="46" t="s">
-        <x:v>404</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="D12" s="47" t="s">
         <x:v>93</x:v>
@@ -10812,7 +10890,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I12" s="48" t="s">
-        <x:v>404</x:v>
+        <x:v>406</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9" ht="16.2" customHeight="1">
@@ -10820,10 +10898,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B13" s="45" t="s">
-        <x:v>405</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="C13" s="46" t="s">
-        <x:v>406</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="D13" s="47" t="s">
         <x:v>93</x:v>
@@ -10837,7 +10915,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I13" s="48" t="s">
-        <x:v>406</x:v>
+        <x:v>408</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9" ht="16.2" customHeight="1">
@@ -10845,10 +10923,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B14" s="45" t="s">
-        <x:v>407</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="C14" s="46" t="s">
-        <x:v>408</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="D14" s="47" t="s">
         <x:v>106</x:v>
@@ -10864,7 +10942,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I14" s="48" t="s">
-        <x:v>408</x:v>
+        <x:v>410</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9" ht="16.2" customHeight="1">
@@ -10872,10 +10950,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B15" s="45" t="s">
-        <x:v>409</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="C15" s="46" t="s">
-        <x:v>410</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="D15" s="47" t="s">
         <x:v>96</x:v>
@@ -10889,7 +10967,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I15" s="48" t="s">
-        <x:v>410</x:v>
+        <x:v>412</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9" ht="16.2" customHeight="1">
@@ -10897,10 +10975,10 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B16" s="45" t="s">
-        <x:v>411</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="C16" s="46" t="s">
-        <x:v>412</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="D16" s="47" t="s">
         <x:v>93</x:v>
@@ -10914,7 +10992,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I16" s="48" t="s">
-        <x:v>412</x:v>
+        <x:v>414</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -11045,7 +11123,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="24.6" customHeight="1">
       <x:c r="A1" s="22" t="s">
-        <x:v>413</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="B1" s="22"/>
       <x:c r="C1" s="22"/>
@@ -11068,7 +11146,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="32" t="s">
-        <x:v>414</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="B4" s="33"/>
       <x:c r="C4" s="34" t="s">
@@ -11076,7 +11154,7 @@
       </x:c>
       <x:c r="D4" s="35"/>
       <x:c r="E4" s="32" t="s">
-        <x:v>415</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="F4" s="36"/>
       <x:c r="G4" s="36"/>
@@ -11246,7 +11324,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B13" s="45" t="s">
-        <x:v>416</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="C13" s="46"/>
       <x:c r="D13" s="47" t="s">

--- a/Vista.DB/Schema/AuctionDB_Schema.xlsx
+++ b/Vista.DB/Schema/AuctionDB_Schema.xlsx
@@ -4288,9 +4288,7 @@
       <x:c r="E9" s="47" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="F9" s="47" t="s">
-        <x:v>92</x:v>
-      </x:c>
+      <x:c r="F9" s="47" t="s"/>
       <x:c r="G9" s="47"/>
       <x:c r="H9" s="47" t="s">
         <x:v>93</x:v>
@@ -8537,9 +8535,7 @@
       <x:c r="E9" s="47" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="F9" s="47" t="s">
-        <x:v>92</x:v>
-      </x:c>
+      <x:c r="F9" s="47" t="s"/>
       <x:c r="G9" s="47"/>
       <x:c r="H9" s="47" t="s">
         <x:v>93</x:v>

--- a/Vista.DB/Schema/AuctionDB_Schema.xlsx
+++ b/Vista.DB/Schema/AuctionDB_Schema.xlsx
@@ -145,7 +145,7 @@
     <x:t>資料庫名稱 : AuctionDB</x:t>
   </x:si>
   <x:si>
-    <x:t>製表日期 : 2025-10-03</x:t>
+    <x:t>製表日期 : 2025-10-08</x:t>
   </x:si>
   <x:si>
     <x:r>
